--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -436,7 +436,7 @@
     <t xml:space="preserve">kan</t>
   </si>
   <si>
-    <t xml:space="preserve"> ವರ್ಚುವಲ್ ಸೆಂಟರ್</t>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ಸೆಂಟರ್</t>
   </si>
   <si>
     <t xml:space="preserve">ವರ್ಚುವಲ್ ವಿಳಾಸ 1</t>
@@ -448,13 +448,13 @@
     <t xml:space="preserve">ನನ್ನ ದೇಶ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಎ ಬೆನ್ ಮನ್ಸೂರ್</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಎ ಬೆನ್ ಮನ್ಸೂರ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಬೆನ್ ಮನ್ಸೂರ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಗ್ರಾಮೀಣ ಪುರಸಭೆ ಮ್ನಾಸ್ರಾ</t>
+    <t xml:space="preserve">ಗ್ರಾಮೀಣ ಪುರಸಭೆ ಮ್ನಾಸ್ರಾ</t>
   </si>
   <si>
     <t xml:space="preserve">ಮಾರ್ಗ ಡಿ ಮೌಲೆ ಬೌಸೆಲ್‌ಹ್ಯಾಮ್</t>
@@ -472,7 +472,7 @@
     <t xml:space="preserve">ಮೈಗ್ರೇನ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕೇಂದ್ರ ಅಸ್ಸಾಂ</t>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಅಸ್ಸಾಂ</t>
   </si>
   <si>
     <t xml:space="preserve">7 ಕಿಮೀ ಟ್ಯಾಂಜಿಯರ್ ರಸ್ತೆ</t>
@@ -481,7 +481,7 @@
     <t xml:space="preserve">ಕೆನಿತ್ರಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಮೆಹದಿಯಾ</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಮೆಹದಿಯಾ</t>
   </si>
   <si>
     <t xml:space="preserve">ಮೆಹದಿಯಾ ರಸ್ತೆ ಅಮ್ರಿಯಾ ಮೆಹದಿಯಾ</t>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">ಮರೋಕ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ Ouled Oujih</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ Ouled Oujih</t>
   </si>
   <si>
     <t xml:space="preserve">ಬ್ಲಾಕ್ 1 G1 N113</t>
@@ -505,7 +505,7 @@
     <t xml:space="preserve">ಸಿಡಿ ತೈಬಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
   </si>
   <si>
     <t xml:space="preserve">ರಾಷ್ಟ್ರೀಯ ರಸ್ತೆ</t>
@@ -514,7 +514,7 @@
     <t xml:space="preserve">ಅಲ್ಲಾ ತಾಜಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕೇಂದ್ರ ಅಗ್ಡಾಲ್</t>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಅಗ್ಡಾಲ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಫ್ರೆಂಚ್ ಅವೆನ್ಯೂ</t>
@@ -523,13 +523,13 @@
     <t xml:space="preserve">ರಬತ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕೇಂದ್ರ ಹಾಸನ</t>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಹಾಸನ</t>
   </si>
   <si>
     <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಮೀರ್ ಮೌಲೆ ಅಬ್ದುಲ್ಲಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಸೌಸಿ</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಸೌಸಿ</t>
   </si>
   <si>
     <t xml:space="preserve">ಸೆಂಟರ್ ಮದೀನತ್ ಅಲ್ ಇರ್ಫಾನೆ</t>
@@ -538,31 +538,31 @@
     <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಲ್ಲಲ್ ಅಲ್ ಫಾಸ್ಸಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಹೇ ರಿಯಾಡ್</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಹೇ ರಿಯಾಡ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಲ್ ಅರಾರ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಮದೀನಾ</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಮದೀನಾ</t>
   </si>
   <si>
     <t xml:space="preserve">ಕಾನ್ಸುಲ್‌ಗಳ ಬೀದಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೆಂಟರ್ ಯೂಸೌಫಿಯಾ</t>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಯೂಸೌಫಿಯಾ</t>
   </si>
   <si>
     <t xml:space="preserve">ಅವೆನ್ಯೂ ಔಜ್ಗುಯಿಟಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕೇಂದ್ರ ರಬತ್</t>
+    <t xml:space="preserve">ಕೇಂದ್ರ ರಬತ್</t>
   </si>
   <si>
     <t xml:space="preserve">hin</t>
   </si>
   <si>
-    <t xml:space="preserve"> आभासी केंद्र</t>
+    <t xml:space="preserve">आभासी केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">आभासी पता 1</t>
@@ -574,13 +574,13 @@
     <t xml:space="preserve">मेरा देश</t>
   </si>
   <si>
-    <t xml:space="preserve"> सेंटर ए बेन मंसूर</t>
+    <t xml:space="preserve">सेंटर ए बेन मंसूर</t>
   </si>
   <si>
     <t xml:space="preserve">बेन मंसूर</t>
   </si>
   <si>
-    <t xml:space="preserve"> ग्रामीण नगर मनसराय</t>
+    <t xml:space="preserve">ग्रामीण नगर मनसराय</t>
   </si>
   <si>
     <t xml:space="preserve">रूट डी मौले बौसेलहैम</t>
@@ -607,7 +607,7 @@
     <t xml:space="preserve">केनिट्रा</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र मेहदिया</t>
+    <t xml:space="preserve">केंद्र मेहदिया</t>
   </si>
   <si>
     <t xml:space="preserve">मेहदिया रोड अमरिया मेहदिया</t>
@@ -616,13 +616,13 @@
     <t xml:space="preserve">मारोसी</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र औलेड औजिहो</t>
+    <t xml:space="preserve">केंद्र औलेड औजिहो</t>
   </si>
   <si>
     <t xml:space="preserve">ब्लॉक 1 G1 N113</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र सिदी ताइबिक</t>
+    <t xml:space="preserve">केंद्र सिदी ताइबिक</t>
   </si>
   <si>
     <t xml:space="preserve">रबत रोड</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve">सिदी ताइबि</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र सिदी अल्लाल ताज़िक</t>
+    <t xml:space="preserve">केंद्र सिदी अल्लाल ताज़िक</t>
   </si>
   <si>
     <t xml:space="preserve">राष्ट्रीय सड़क</t>
@@ -640,7 +640,7 @@
     <t xml:space="preserve">अल्ला ताज़िक</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र Agdal</t>
+    <t xml:space="preserve">केंद्र Agdal</t>
   </si>
   <si>
     <t xml:space="preserve">फ्रेंच एवेन्यू</t>
@@ -649,19 +649,19 @@
     <t xml:space="preserve">रबात</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र हसन</t>
+    <t xml:space="preserve">केंद्र हसन</t>
   </si>
   <si>
     <t xml:space="preserve">एवेन्यू अमीर मौले अब्देलाह</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र सूसी</t>
+    <t xml:space="preserve">केंद्र सूसी</t>
   </si>
   <si>
     <t xml:space="preserve">एवेन्यू मोहम्मद VI</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र मदीनत अल इरफान</t>
+    <t xml:space="preserve">केंद्र मदीनत अल इरफान</t>
   </si>
   <si>
     <t xml:space="preserve">एवेन्यू अल्लाल अल फसी</t>
@@ -673,19 +673,19 @@
     <t xml:space="preserve">एवेन्यू अल अरारी</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र मदीना</t>
+    <t xml:space="preserve">केंद्र मदीना</t>
   </si>
   <si>
     <t xml:space="preserve">कौंसल की सड़क</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र युसूफिया</t>
+    <t xml:space="preserve">केंद्र युसूफिया</t>
   </si>
   <si>
     <t xml:space="preserve">एवेन्यू औजगुइटा</t>
   </si>
   <si>
-    <t xml:space="preserve"> केंद्र रबातो</t>
+    <t xml:space="preserve">केंद्र रबातो</t>
   </si>
   <si>
     <t xml:space="preserve">tam</t>
@@ -721,16 +721,16 @@
     <t xml:space="preserve">ஒற்றைத் தலைவலி</t>
   </si>
   <si>
-    <t xml:space="preserve"> அசாம் மையம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 கிமீ டேன்ஜியர் சாலை</t>
+    <t xml:space="preserve">அசாம் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 கிமீ டேன்ஜியர் சாலை</t>
   </si>
   <si>
     <t xml:space="preserve">கெனிட்ரா </t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் மெஹதியா</t>
+    <t xml:space="preserve">மையம் மெஹதியா</t>
   </si>
   <si>
     <t xml:space="preserve">மெஹ்தியா சாலை அம்ரியா மெஹதியா</t>
@@ -739,7 +739,7 @@
     <t xml:space="preserve">மரோக்</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் Ouled Oujih</t>
+    <t xml:space="preserve">மையம் Ouled Oujih</t>
   </si>
   <si>
     <t xml:space="preserve">தொகுதி 1 G1 N113</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">கெனிட்ரா</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் சிடி தைபி</t>
+    <t xml:space="preserve">மையம் சிடி தைபி</t>
   </si>
   <si>
     <t xml:space="preserve">ரபாத் சாலை</t>
@@ -766,7 +766,7 @@
     <t xml:space="preserve">அல்லா தாசி</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் அக்டல்</t>
+    <t xml:space="preserve">மையம் அக்டல்</t>
   </si>
   <si>
     <t xml:space="preserve">பிரஞ்சு அவென்யூ</t>
@@ -775,13 +775,13 @@
     <t xml:space="preserve">ரபாத்</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் ஹாசன்</t>
+    <t xml:space="preserve">மையம் ஹாசன்</t>
   </si>
   <si>
     <t xml:space="preserve">அவென்யூ அமீர் மௌலே அப்தெல்லா</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் Souissi</t>
+    <t xml:space="preserve">மையம் Souissi</t>
   </si>
   <si>
     <t xml:space="preserve">அவென்யூ முகமது VI</t>
@@ -793,25 +793,25 @@
     <t xml:space="preserve">அவென்யூ அல்லால் அல் ஃபாஸி</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் ஹே ரியாட்</t>
+    <t xml:space="preserve">மையம் ஹே ரியாட்</t>
   </si>
   <si>
     <t xml:space="preserve">அவென்யூ அல் அரார்</t>
   </si>
   <si>
-    <t xml:space="preserve"> மதீனா மையம்</t>
+    <t xml:space="preserve">மதீனா மையம்</t>
   </si>
   <si>
     <t xml:space="preserve">தூதரகத்தின் தெரு</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் யூசுஃபியா</t>
+    <t xml:space="preserve">மையம் யூசுஃபியா</t>
   </si>
   <si>
     <t xml:space="preserve">அவென்யூ Ouzguita</t>
   </si>
   <si>
-    <t xml:space="preserve"> மையம் ரபாத்</t>
+    <t xml:space="preserve">மையம் ரபாத்</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E86" activeCellId="0" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -954,14 +954,14 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E86" activeCellId="0" sqref="E86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.22"/>

--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master Data\Master DAta Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A8824D-99A0-4EF3-9F77-4388B21A3948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C76001E-1B1D-4674-9E3E-595055DE8D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2DB565-78FF-4155-97F0-5EBCB5259144}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="613">
   <si>
     <t>id</t>
   </si>
@@ -1872,6 +1872,12 @@
   </si>
   <si>
     <t>0312119725</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -2358,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92A3FA-E478-4F31-8A14-E51848C96E36}">
   <dimension ref="A1:AE160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD69" sqref="AD40:AD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -2550,8 +2556,8 @@
       <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="13" t="b">
-        <v>1</v>
+      <c r="W2" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X2" s="14"/>
       <c r="Y2" s="15">
@@ -2559,13 +2565,11 @@
       </c>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
-      <c r="AB2" s="13" t="b">
-        <v>0</v>
+      <c r="AB2" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD2" s="13"/>
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" customHeight="1">
@@ -2633,8 +2637,8 @@
       <c r="V3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="13" t="b">
-        <v>1</v>
+      <c r="W3" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X3" s="14"/>
       <c r="Y3" s="15">
@@ -2642,13 +2646,11 @@
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
-      <c r="AB3" s="13" t="b">
-        <v>0</v>
+      <c r="AB3" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC3" s="14"/>
-      <c r="AD3" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="13"/>
       <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:31" ht="24.75" customHeight="1">
@@ -2716,8 +2718,8 @@
       <c r="V4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="13" t="b">
-        <v>1</v>
+      <c r="W4" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X4" s="14"/>
       <c r="Y4" s="15">
@@ -2725,13 +2727,11 @@
       </c>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
-      <c r="AB4" s="13" t="b">
-        <v>0</v>
+      <c r="AB4" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="13"/>
       <c r="AE4" s="14"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" customHeight="1">
@@ -2799,8 +2799,8 @@
       <c r="V5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="13" t="b">
-        <v>1</v>
+      <c r="W5" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X5" s="14"/>
       <c r="Y5" s="15">
@@ -2808,13 +2808,11 @@
       </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
-      <c r="AB5" s="13" t="b">
-        <v>0</v>
+      <c r="AB5" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC5" s="14"/>
-      <c r="AD5" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="13"/>
       <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:31" ht="24.75" customHeight="1">
@@ -2882,8 +2880,8 @@
       <c r="V6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="13" t="b">
-        <v>1</v>
+      <c r="W6" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X6" s="14"/>
       <c r="Y6" s="15">
@@ -2891,13 +2889,11 @@
       </c>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
-      <c r="AB6" s="13" t="b">
-        <v>0</v>
+      <c r="AB6" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC6" s="14"/>
-      <c r="AD6" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="13"/>
       <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:31" ht="24.75" customHeight="1">
@@ -2965,8 +2961,8 @@
       <c r="V7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="13" t="b">
-        <v>1</v>
+      <c r="W7" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X7" s="14"/>
       <c r="Y7" s="15">
@@ -2974,13 +2970,11 @@
       </c>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
-      <c r="AB7" s="13" t="b">
-        <v>0</v>
+      <c r="AB7" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD7" s="13"/>
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:31" ht="24.75" customHeight="1">
@@ -3048,8 +3042,8 @@
       <c r="V8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="13" t="b">
-        <v>1</v>
+      <c r="W8" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X8" s="14"/>
       <c r="Y8" s="15">
@@ -3057,13 +3051,11 @@
       </c>
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
-      <c r="AB8" s="13" t="b">
-        <v>0</v>
+      <c r="AB8" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC8" s="14"/>
-      <c r="AD8" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD8" s="13"/>
       <c r="AE8" s="14"/>
     </row>
     <row r="9" spans="1:31" ht="24.75" customHeight="1">
@@ -3131,8 +3123,8 @@
       <c r="V9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="13" t="b">
-        <v>1</v>
+      <c r="W9" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X9" s="14"/>
       <c r="Y9" s="15">
@@ -3140,13 +3132,11 @@
       </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="13" t="b">
-        <v>0</v>
+      <c r="AB9" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD9" s="13"/>
       <c r="AE9" s="14"/>
     </row>
     <row r="10" spans="1:31" ht="24.75" customHeight="1">
@@ -3214,8 +3204,8 @@
       <c r="V10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="13" t="b">
-        <v>1</v>
+      <c r="W10" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X10" s="14"/>
       <c r="Y10" s="15">
@@ -3223,13 +3213,11 @@
       </c>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
-      <c r="AB10" s="13" t="b">
-        <v>0</v>
+      <c r="AB10" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC10" s="14"/>
-      <c r="AD10" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD10" s="13"/>
       <c r="AE10" s="14"/>
     </row>
     <row r="11" spans="1:31" ht="24.75" customHeight="1">
@@ -3297,8 +3285,8 @@
       <c r="V11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="13" t="b">
-        <v>1</v>
+      <c r="W11" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X11" s="14"/>
       <c r="Y11" s="15">
@@ -3306,13 +3294,11 @@
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
-      <c r="AB11" s="13" t="b">
-        <v>0</v>
+      <c r="AB11" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="13"/>
       <c r="AE11" s="14"/>
     </row>
     <row r="12" spans="1:31" ht="24.75" customHeight="1">
@@ -3380,8 +3366,8 @@
       <c r="V12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="13" t="b">
-        <v>1</v>
+      <c r="W12" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="15">
@@ -3389,13 +3375,11 @@
       </c>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="13" t="b">
-        <v>0</v>
+      <c r="AB12" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="13"/>
       <c r="AE12" s="14"/>
     </row>
     <row r="13" spans="1:31" ht="24.75" customHeight="1">
@@ -3463,8 +3447,8 @@
       <c r="V13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="13" t="b">
-        <v>1</v>
+      <c r="W13" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="15">
@@ -3472,13 +3456,11 @@
       </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="13" t="b">
-        <v>0</v>
+      <c r="AB13" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC13" s="14"/>
-      <c r="AD13" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD13" s="13"/>
       <c r="AE13" s="14"/>
     </row>
     <row r="14" spans="1:31" ht="24.75" customHeight="1">
@@ -3546,8 +3528,8 @@
       <c r="V14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="13" t="b">
-        <v>1</v>
+      <c r="W14" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="15">
@@ -3555,13 +3537,11 @@
       </c>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="13" t="b">
-        <v>0</v>
+      <c r="AB14" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC14" s="14"/>
-      <c r="AD14" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="13"/>
       <c r="AE14" s="14"/>
     </row>
     <row r="15" spans="1:31" ht="24.75" customHeight="1">
@@ -3629,8 +3609,8 @@
       <c r="V15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W15" s="13" t="b">
-        <v>1</v>
+      <c r="W15" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="15">
@@ -3638,13 +3618,11 @@
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="13" t="b">
-        <v>0</v>
+      <c r="AB15" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC15" s="14"/>
-      <c r="AD15" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD15" s="13"/>
       <c r="AE15" s="14"/>
     </row>
     <row r="16" spans="1:31" ht="24.75" customHeight="1">
@@ -3712,8 +3690,8 @@
       <c r="V16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="13" t="b">
-        <v>1</v>
+      <c r="W16" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="15">
@@ -3721,13 +3699,11 @@
       </c>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="13" t="b">
-        <v>0</v>
+      <c r="AB16" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="13"/>
       <c r="AE16" s="14"/>
     </row>
     <row r="17" spans="1:31" ht="24.75" customHeight="1">
@@ -3795,8 +3771,8 @@
       <c r="V17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W17" s="13" t="b">
-        <v>1</v>
+      <c r="W17" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X17" s="14"/>
       <c r="Y17" s="15">
@@ -3804,13 +3780,11 @@
       </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="13" t="b">
-        <v>0</v>
+      <c r="AB17" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="13"/>
       <c r="AE17" s="14"/>
     </row>
     <row r="18" spans="1:31" ht="24.75" customHeight="1">
@@ -3878,8 +3852,8 @@
       <c r="V18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W18" s="13" t="b">
-        <v>1</v>
+      <c r="W18" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="15">
@@ -3887,13 +3861,11 @@
       </c>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="13" t="b">
-        <v>0</v>
+      <c r="AB18" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD18" s="13"/>
       <c r="AE18" s="14"/>
     </row>
     <row r="19" spans="1:31" ht="24.75" customHeight="1">
@@ -3961,8 +3933,8 @@
       <c r="V19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W19" s="13" t="b">
-        <v>1</v>
+      <c r="W19" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="15">
@@ -3970,13 +3942,11 @@
       </c>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="13" t="b">
-        <v>0</v>
+      <c r="AB19" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC19" s="14"/>
-      <c r="AD19" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD19" s="13"/>
       <c r="AE19" s="14"/>
     </row>
     <row r="20" spans="1:31" ht="24.75" customHeight="1">
@@ -4044,8 +4014,8 @@
       <c r="V20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W20" s="13" t="b">
-        <v>1</v>
+      <c r="W20" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="15">
@@ -4053,13 +4023,11 @@
       </c>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="13" t="b">
-        <v>0</v>
+      <c r="AB20" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC20" s="14"/>
-      <c r="AD20" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD20" s="13"/>
       <c r="AE20" s="14"/>
     </row>
     <row r="21" spans="1:31" ht="24.75" customHeight="1">
@@ -4127,8 +4095,8 @@
       <c r="V21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W21" s="13" t="b">
-        <v>1</v>
+      <c r="W21" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="15">
@@ -4136,13 +4104,11 @@
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="13" t="b">
-        <v>0</v>
+      <c r="AB21" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC21" s="14"/>
-      <c r="AD21" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD21" s="13"/>
       <c r="AE21" s="14"/>
     </row>
     <row r="22" spans="1:31" ht="24.75" customHeight="1">
@@ -4210,8 +4176,8 @@
       <c r="V22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W22" s="13" t="b">
-        <v>1</v>
+      <c r="W22" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="15">
@@ -4219,13 +4185,11 @@
       </c>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
-      <c r="AB22" s="13" t="b">
-        <v>0</v>
+      <c r="AB22" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC22" s="14"/>
-      <c r="AD22" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD22" s="13"/>
       <c r="AE22" s="14"/>
     </row>
     <row r="23" spans="1:31" ht="24.75" customHeight="1">
@@ -4293,8 +4257,8 @@
       <c r="V23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="13" t="b">
-        <v>1</v>
+      <c r="W23" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="15">
@@ -4302,13 +4266,11 @@
       </c>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
-      <c r="AB23" s="13" t="b">
-        <v>0</v>
+      <c r="AB23" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD23" s="13"/>
       <c r="AE23" s="14"/>
     </row>
     <row r="24" spans="1:31" ht="24.75" customHeight="1">
@@ -4376,8 +4338,8 @@
       <c r="V24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W24" s="13" t="b">
-        <v>1</v>
+      <c r="W24" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="15">
@@ -4385,13 +4347,11 @@
       </c>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="13" t="b">
-        <v>0</v>
+      <c r="AB24" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD24" s="13"/>
       <c r="AE24" s="14"/>
     </row>
     <row r="25" spans="1:31" ht="24.75" customHeight="1">
@@ -4437,12 +4397,16 @@
         <v>430</v>
       </c>
       <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
+      <c r="W25" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
+      <c r="AB25" s="2" t="s">
+        <v>612</v>
+      </c>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
@@ -4512,8 +4476,8 @@
       <c r="V26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W26" s="13" t="b">
-        <v>1</v>
+      <c r="W26" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="15">
@@ -4521,13 +4485,11 @@
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
-      <c r="AB26" s="13" t="b">
-        <v>0</v>
+      <c r="AB26" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC26" s="14"/>
-      <c r="AD26" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD26" s="13"/>
       <c r="AE26" s="14"/>
     </row>
     <row r="27" spans="1:31" ht="24.75" customHeight="1">
@@ -4595,8 +4557,8 @@
       <c r="V27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W27" s="13" t="b">
-        <v>1</v>
+      <c r="W27" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="15">
@@ -4604,13 +4566,11 @@
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
-      <c r="AB27" s="13" t="b">
-        <v>0</v>
+      <c r="AB27" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC27" s="14"/>
-      <c r="AD27" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD27" s="13"/>
       <c r="AE27" s="14"/>
     </row>
     <row r="28" spans="1:31" ht="24.75" customHeight="1">
@@ -4678,8 +4638,8 @@
       <c r="V28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W28" s="13" t="b">
-        <v>1</v>
+      <c r="W28" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X28" s="14"/>
       <c r="Y28" s="15">
@@ -4687,13 +4647,11 @@
       </c>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
-      <c r="AB28" s="13" t="b">
-        <v>0</v>
+      <c r="AB28" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD28" s="13"/>
       <c r="AE28" s="14"/>
     </row>
     <row r="29" spans="1:31" ht="24.75" customHeight="1">
@@ -4761,8 +4719,8 @@
       <c r="V29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W29" s="13" t="b">
-        <v>1</v>
+      <c r="W29" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X29" s="14"/>
       <c r="Y29" s="15">
@@ -4770,13 +4728,11 @@
       </c>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
-      <c r="AB29" s="13" t="b">
-        <v>0</v>
+      <c r="AB29" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC29" s="14"/>
-      <c r="AD29" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD29" s="13"/>
       <c r="AE29" s="14"/>
     </row>
     <row r="30" spans="1:31" ht="24.75" customHeight="1">
@@ -4844,8 +4800,8 @@
       <c r="V30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W30" s="13" t="b">
-        <v>1</v>
+      <c r="W30" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="15">
@@ -4853,13 +4809,11 @@
       </c>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
-      <c r="AB30" s="13" t="b">
-        <v>0</v>
+      <c r="AB30" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC30" s="14"/>
-      <c r="AD30" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD30" s="13"/>
       <c r="AE30" s="14"/>
     </row>
     <row r="31" spans="1:31" ht="24.75" customHeight="1">
@@ -4927,8 +4881,8 @@
       <c r="V31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W31" s="13" t="b">
-        <v>1</v>
+      <c r="W31" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="15">
@@ -4936,13 +4890,11 @@
       </c>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
-      <c r="AB31" s="13" t="b">
-        <v>0</v>
+      <c r="AB31" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD31" s="13"/>
       <c r="AE31" s="14"/>
     </row>
     <row r="32" spans="1:31" ht="24.75" customHeight="1">
@@ -5010,8 +4962,8 @@
       <c r="V32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W32" s="13" t="b">
-        <v>1</v>
+      <c r="W32" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="15">
@@ -5019,13 +4971,11 @@
       </c>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
-      <c r="AB32" s="13" t="b">
-        <v>0</v>
+      <c r="AB32" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD32" s="13"/>
       <c r="AE32" s="14"/>
     </row>
     <row r="33" spans="1:31" ht="24.75" customHeight="1">
@@ -5093,8 +5043,8 @@
       <c r="V33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="13" t="b">
-        <v>1</v>
+      <c r="W33" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="15">
@@ -5102,13 +5052,11 @@
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
-      <c r="AB33" s="13" t="b">
-        <v>0</v>
+      <c r="AB33" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC33" s="14"/>
-      <c r="AD33" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD33" s="13"/>
       <c r="AE33" s="14"/>
     </row>
     <row r="34" spans="1:31" ht="24.75" customHeight="1">
@@ -5176,8 +5124,8 @@
       <c r="V34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W34" s="13" t="b">
-        <v>1</v>
+      <c r="W34" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X34" s="14"/>
       <c r="Y34" s="15">
@@ -5185,13 +5133,11 @@
       </c>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="13" t="b">
-        <v>0</v>
+      <c r="AB34" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD34" s="13"/>
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="1:31" ht="24.75" customHeight="1">
@@ -5259,8 +5205,8 @@
       <c r="V35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W35" s="13" t="b">
-        <v>1</v>
+      <c r="W35" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X35" s="14"/>
       <c r="Y35" s="15">
@@ -5268,13 +5214,11 @@
       </c>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
-      <c r="AB35" s="13" t="b">
-        <v>0</v>
+      <c r="AB35" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD35" s="13"/>
       <c r="AE35" s="14"/>
     </row>
     <row r="36" spans="1:31" ht="24.75" customHeight="1">
@@ -5340,8 +5284,8 @@
       <c r="V36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W36" s="13" t="b">
-        <v>1</v>
+      <c r="W36" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X36" s="14"/>
       <c r="Y36" s="15">
@@ -5349,13 +5293,11 @@
       </c>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
-      <c r="AB36" s="13" t="b">
-        <v>0</v>
+      <c r="AB36" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC36" s="14"/>
-      <c r="AD36" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD36" s="13"/>
       <c r="AE36" s="14"/>
     </row>
     <row r="37" spans="1:31" ht="24.75" customHeight="1">
@@ -5423,8 +5365,8 @@
       <c r="V37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W37" s="13" t="b">
-        <v>1</v>
+      <c r="W37" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="15">
@@ -5432,13 +5374,11 @@
       </c>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
-      <c r="AB37" s="13" t="b">
-        <v>0</v>
+      <c r="AB37" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD37" s="13"/>
       <c r="AE37" s="14"/>
     </row>
     <row r="38" spans="1:31" ht="24.75" customHeight="1">
@@ -5506,8 +5446,8 @@
       <c r="V38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W38" s="13" t="b">
-        <v>1</v>
+      <c r="W38" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X38" s="14"/>
       <c r="Y38" s="15">
@@ -5515,13 +5455,11 @@
       </c>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
-      <c r="AB38" s="13" t="b">
-        <v>0</v>
+      <c r="AB38" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC38" s="14"/>
-      <c r="AD38" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD38" s="13"/>
       <c r="AE38" s="14"/>
     </row>
     <row r="39" spans="1:31" ht="24.75" customHeight="1">
@@ -5589,8 +5527,8 @@
       <c r="V39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W39" s="13" t="b">
-        <v>1</v>
+      <c r="W39" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="15">
@@ -5598,8 +5536,8 @@
       </c>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
-      <c r="AB39" s="13" t="b">
-        <v>0</v>
+      <c r="AB39" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
@@ -5670,8 +5608,8 @@
       <c r="V40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W40" s="13" t="b">
-        <v>1</v>
+      <c r="W40" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X40" s="14"/>
       <c r="Y40" s="15">
@@ -5679,13 +5617,11 @@
       </c>
       <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="13" t="b">
-        <v>0</v>
+      <c r="AB40" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC40" s="14"/>
-      <c r="AD40" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD40" s="13"/>
       <c r="AE40" s="14"/>
     </row>
     <row r="41" spans="1:31" ht="24.75" customHeight="1">
@@ -5753,8 +5689,8 @@
       <c r="V41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W41" s="13" t="b">
-        <v>1</v>
+      <c r="W41" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X41" s="14"/>
       <c r="Y41" s="15">
@@ -5762,13 +5698,11 @@
       </c>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
-      <c r="AB41" s="13" t="b">
-        <v>0</v>
+      <c r="AB41" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC41" s="14"/>
-      <c r="AD41" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD41" s="13"/>
       <c r="AE41" s="14"/>
     </row>
     <row r="42" spans="1:31" ht="24.75" customHeight="1">
@@ -5836,8 +5770,8 @@
       <c r="V42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W42" s="13" t="b">
-        <v>1</v>
+      <c r="W42" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X42" s="14"/>
       <c r="Y42" s="15">
@@ -5845,13 +5779,11 @@
       </c>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
-      <c r="AB42" s="13" t="b">
-        <v>0</v>
+      <c r="AB42" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC42" s="14"/>
-      <c r="AD42" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD42" s="13"/>
       <c r="AE42" s="14"/>
     </row>
     <row r="43" spans="1:31" ht="24.75" customHeight="1">
@@ -5919,8 +5851,8 @@
       <c r="V43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W43" s="13" t="b">
-        <v>1</v>
+      <c r="W43" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X43" s="14"/>
       <c r="Y43" s="15">
@@ -5928,13 +5860,11 @@
       </c>
       <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
-      <c r="AB43" s="13" t="b">
-        <v>0</v>
+      <c r="AB43" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC43" s="14"/>
-      <c r="AD43" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD43" s="13"/>
       <c r="AE43" s="14"/>
     </row>
     <row r="44" spans="1:31" ht="24.75" customHeight="1">
@@ -6002,8 +5932,8 @@
       <c r="V44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W44" s="13" t="b">
-        <v>1</v>
+      <c r="W44" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X44" s="14"/>
       <c r="Y44" s="15">
@@ -6011,13 +5941,11 @@
       </c>
       <c r="Z44" s="14"/>
       <c r="AA44" s="14"/>
-      <c r="AB44" s="13" t="b">
-        <v>0</v>
+      <c r="AB44" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD44" s="13"/>
       <c r="AE44" s="14"/>
     </row>
     <row r="45" spans="1:31" ht="24.75" customHeight="1">
@@ -6085,8 +6013,8 @@
       <c r="V45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W45" s="13" t="b">
-        <v>1</v>
+      <c r="W45" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X45" s="14"/>
       <c r="Y45" s="15">
@@ -6094,13 +6022,11 @@
       </c>
       <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
-      <c r="AB45" s="13" t="b">
-        <v>0</v>
+      <c r="AB45" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC45" s="14"/>
-      <c r="AD45" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD45" s="13"/>
       <c r="AE45" s="14"/>
     </row>
     <row r="46" spans="1:31" ht="24.75" customHeight="1">
@@ -6168,8 +6094,8 @@
       <c r="V46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W46" s="13" t="b">
-        <v>1</v>
+      <c r="W46" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X46" s="14"/>
       <c r="Y46" s="15">
@@ -6177,13 +6103,11 @@
       </c>
       <c r="Z46" s="14"/>
       <c r="AA46" s="14"/>
-      <c r="AB46" s="13" t="b">
-        <v>0</v>
+      <c r="AB46" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC46" s="14"/>
-      <c r="AD46" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD46" s="13"/>
       <c r="AE46" s="14"/>
     </row>
     <row r="47" spans="1:31" ht="24.75" customHeight="1">
@@ -6251,8 +6175,8 @@
       <c r="V47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W47" s="13" t="b">
-        <v>1</v>
+      <c r="W47" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X47" s="14"/>
       <c r="Y47" s="15">
@@ -6260,13 +6184,11 @@
       </c>
       <c r="Z47" s="14"/>
       <c r="AA47" s="14"/>
-      <c r="AB47" s="13" t="b">
-        <v>0</v>
+      <c r="AB47" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC47" s="14"/>
-      <c r="AD47" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD47" s="13"/>
       <c r="AE47" s="14"/>
     </row>
     <row r="48" spans="1:31" ht="24.75" customHeight="1">
@@ -6334,8 +6256,8 @@
       <c r="V48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W48" s="13" t="b">
-        <v>1</v>
+      <c r="W48" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X48" s="14"/>
       <c r="Y48" s="15">
@@ -6343,13 +6265,11 @@
       </c>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
-      <c r="AB48" s="13" t="b">
-        <v>0</v>
+      <c r="AB48" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC48" s="14"/>
-      <c r="AD48" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD48" s="13"/>
       <c r="AE48" s="14"/>
     </row>
     <row r="49" spans="1:31" ht="24.75" customHeight="1">
@@ -6417,8 +6337,8 @@
       <c r="V49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="13" t="b">
-        <v>1</v>
+      <c r="W49" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X49" s="14"/>
       <c r="Y49" s="15">
@@ -6426,13 +6346,11 @@
       </c>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
-      <c r="AB49" s="13" t="b">
-        <v>0</v>
+      <c r="AB49" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC49" s="14"/>
-      <c r="AD49" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD49" s="13"/>
       <c r="AE49" s="14"/>
     </row>
     <row r="50" spans="1:31" ht="24.75" customHeight="1">
@@ -6500,8 +6418,8 @@
       <c r="V50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W50" s="13" t="b">
-        <v>1</v>
+      <c r="W50" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X50" s="14"/>
       <c r="Y50" s="15">
@@ -6509,13 +6427,11 @@
       </c>
       <c r="Z50" s="14"/>
       <c r="AA50" s="14"/>
-      <c r="AB50" s="13" t="b">
-        <v>0</v>
+      <c r="AB50" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC50" s="14"/>
-      <c r="AD50" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD50" s="13"/>
       <c r="AE50" s="14"/>
     </row>
     <row r="51" spans="1:31" ht="24.75" customHeight="1">
@@ -6583,8 +6499,8 @@
       <c r="V51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W51" s="13" t="b">
-        <v>1</v>
+      <c r="W51" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X51" s="14"/>
       <c r="Y51" s="15">
@@ -6592,13 +6508,11 @@
       </c>
       <c r="Z51" s="14"/>
       <c r="AA51" s="14"/>
-      <c r="AB51" s="13" t="b">
-        <v>0</v>
+      <c r="AB51" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD51" s="13"/>
       <c r="AE51" s="14"/>
     </row>
     <row r="52" spans="1:31" ht="24.75" customHeight="1">
@@ -6666,8 +6580,8 @@
       <c r="V52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W52" s="13" t="b">
-        <v>1</v>
+      <c r="W52" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X52" s="14"/>
       <c r="Y52" s="15">
@@ -6675,13 +6589,11 @@
       </c>
       <c r="Z52" s="14"/>
       <c r="AA52" s="14"/>
-      <c r="AB52" s="13" t="b">
-        <v>0</v>
+      <c r="AB52" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC52" s="14"/>
-      <c r="AD52" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD52" s="13"/>
       <c r="AE52" s="14"/>
     </row>
     <row r="53" spans="1:31" ht="24.75" customHeight="1">
@@ -6749,8 +6661,8 @@
       <c r="V53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W53" s="13" t="b">
-        <v>1</v>
+      <c r="W53" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="15">
@@ -6758,13 +6670,11 @@
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="14"/>
-      <c r="AB53" s="13" t="b">
-        <v>0</v>
+      <c r="AB53" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD53" s="13"/>
       <c r="AE53" s="14"/>
     </row>
     <row r="54" spans="1:31" ht="24.75" customHeight="1">
@@ -6832,8 +6742,8 @@
       <c r="V54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W54" s="13" t="b">
-        <v>1</v>
+      <c r="W54" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X54" s="14"/>
       <c r="Y54" s="15">
@@ -6841,13 +6751,11 @@
       </c>
       <c r="Z54" s="14"/>
       <c r="AA54" s="14"/>
-      <c r="AB54" s="13" t="b">
-        <v>0</v>
+      <c r="AB54" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC54" s="14"/>
-      <c r="AD54" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD54" s="13"/>
       <c r="AE54" s="14"/>
     </row>
     <row r="55" spans="1:31" ht="24.75" customHeight="1">
@@ -6915,8 +6823,8 @@
       <c r="V55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W55" s="13" t="b">
-        <v>1</v>
+      <c r="W55" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X55" s="14"/>
       <c r="Y55" s="15">
@@ -6924,13 +6832,11 @@
       </c>
       <c r="Z55" s="14"/>
       <c r="AA55" s="14"/>
-      <c r="AB55" s="13" t="b">
-        <v>0</v>
+      <c r="AB55" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC55" s="14"/>
-      <c r="AD55" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD55" s="13"/>
       <c r="AE55" s="14"/>
     </row>
     <row r="56" spans="1:31" ht="24.75" customHeight="1">
@@ -6998,8 +6904,8 @@
       <c r="V56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W56" s="13" t="b">
-        <v>1</v>
+      <c r="W56" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X56" s="14"/>
       <c r="Y56" s="15">
@@ -7007,13 +6913,11 @@
       </c>
       <c r="Z56" s="14"/>
       <c r="AA56" s="14"/>
-      <c r="AB56" s="13" t="b">
-        <v>0</v>
+      <c r="AB56" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC56" s="14"/>
-      <c r="AD56" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD56" s="13"/>
       <c r="AE56" s="14"/>
     </row>
     <row r="57" spans="1:31" ht="24.75" customHeight="1">
@@ -7081,8 +6985,8 @@
       <c r="V57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="13" t="b">
-        <v>1</v>
+      <c r="W57" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="15">
@@ -7090,13 +6994,11 @@
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="14"/>
-      <c r="AB57" s="13" t="b">
-        <v>0</v>
+      <c r="AB57" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC57" s="14"/>
-      <c r="AD57" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD57" s="13"/>
       <c r="AE57" s="14"/>
     </row>
     <row r="58" spans="1:31" ht="24.75" customHeight="1">
@@ -7164,8 +7066,8 @@
       <c r="V58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W58" s="13" t="b">
-        <v>1</v>
+      <c r="W58" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X58" s="14"/>
       <c r="Y58" s="15">
@@ -7173,13 +7075,11 @@
       </c>
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
-      <c r="AB58" s="13" t="b">
-        <v>0</v>
+      <c r="AB58" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC58" s="14"/>
-      <c r="AD58" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD58" s="13"/>
       <c r="AE58" s="14"/>
     </row>
     <row r="59" spans="1:31" ht="24.75" customHeight="1">
@@ -7247,8 +7147,8 @@
       <c r="V59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W59" s="13" t="b">
-        <v>1</v>
+      <c r="W59" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X59" s="14"/>
       <c r="Y59" s="15">
@@ -7256,13 +7156,11 @@
       </c>
       <c r="Z59" s="14"/>
       <c r="AA59" s="14"/>
-      <c r="AB59" s="13" t="b">
-        <v>0</v>
+      <c r="AB59" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC59" s="14"/>
-      <c r="AD59" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD59" s="13"/>
       <c r="AE59" s="14"/>
     </row>
     <row r="60" spans="1:31" ht="24.75" customHeight="1">
@@ -7330,8 +7228,8 @@
       <c r="V60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W60" s="13" t="b">
-        <v>1</v>
+      <c r="W60" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X60" s="14"/>
       <c r="Y60" s="15">
@@ -7339,13 +7237,11 @@
       </c>
       <c r="Z60" s="14"/>
       <c r="AA60" s="14"/>
-      <c r="AB60" s="13" t="b">
-        <v>0</v>
+      <c r="AB60" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC60" s="14"/>
-      <c r="AD60" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD60" s="13"/>
       <c r="AE60" s="14"/>
     </row>
     <row r="61" spans="1:31" ht="24.75" customHeight="1">
@@ -7413,8 +7309,8 @@
       <c r="V61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W61" s="13" t="b">
-        <v>1</v>
+      <c r="W61" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X61" s="14"/>
       <c r="Y61" s="15">
@@ -7422,13 +7318,11 @@
       </c>
       <c r="Z61" s="14"/>
       <c r="AA61" s="14"/>
-      <c r="AB61" s="13" t="b">
-        <v>0</v>
+      <c r="AB61" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC61" s="14"/>
-      <c r="AD61" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD61" s="13"/>
       <c r="AE61" s="14"/>
     </row>
     <row r="62" spans="1:31" ht="24.75" customHeight="1">
@@ -7496,8 +7390,8 @@
       <c r="V62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W62" s="13" t="b">
-        <v>1</v>
+      <c r="W62" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X62" s="14"/>
       <c r="Y62" s="15">
@@ -7505,13 +7399,11 @@
       </c>
       <c r="Z62" s="14"/>
       <c r="AA62" s="14"/>
-      <c r="AB62" s="13" t="b">
-        <v>0</v>
+      <c r="AB62" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC62" s="14"/>
-      <c r="AD62" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD62" s="13"/>
       <c r="AE62" s="14"/>
     </row>
     <row r="63" spans="1:31" ht="24.75" customHeight="1">
@@ -7579,8 +7471,8 @@
       <c r="V63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W63" s="13" t="b">
-        <v>1</v>
+      <c r="W63" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X63" s="14"/>
       <c r="Y63" s="15">
@@ -7588,13 +7480,11 @@
       </c>
       <c r="Z63" s="14"/>
       <c r="AA63" s="14"/>
-      <c r="AB63" s="13" t="b">
-        <v>0</v>
+      <c r="AB63" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC63" s="14"/>
-      <c r="AD63" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD63" s="13"/>
       <c r="AE63" s="14"/>
     </row>
     <row r="64" spans="1:31" ht="24.75" customHeight="1">
@@ -7662,8 +7552,8 @@
       <c r="V64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W64" s="13" t="b">
-        <v>1</v>
+      <c r="W64" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X64" s="14"/>
       <c r="Y64" s="15">
@@ -7671,13 +7561,11 @@
       </c>
       <c r="Z64" s="14"/>
       <c r="AA64" s="14"/>
-      <c r="AB64" s="13" t="b">
-        <v>0</v>
+      <c r="AB64" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC64" s="14"/>
-      <c r="AD64" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD64" s="13"/>
       <c r="AE64" s="14"/>
     </row>
     <row r="65" spans="1:31" ht="24.75" customHeight="1">
@@ -7745,8 +7633,8 @@
       <c r="V65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W65" s="13" t="b">
-        <v>1</v>
+      <c r="W65" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X65" s="14"/>
       <c r="Y65" s="15">
@@ -7754,13 +7642,11 @@
       </c>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
-      <c r="AB65" s="13" t="b">
-        <v>0</v>
+      <c r="AB65" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC65" s="14"/>
-      <c r="AD65" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD65" s="13"/>
       <c r="AE65" s="14"/>
     </row>
     <row r="66" spans="1:31" ht="24.75" customHeight="1">
@@ -7828,8 +7714,8 @@
       <c r="V66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W66" s="13" t="b">
-        <v>1</v>
+      <c r="W66" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X66" s="14"/>
       <c r="Y66" s="15">
@@ -7837,13 +7723,11 @@
       </c>
       <c r="Z66" s="14"/>
       <c r="AA66" s="14"/>
-      <c r="AB66" s="13" t="b">
-        <v>0</v>
+      <c r="AB66" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC66" s="14"/>
-      <c r="AD66" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD66" s="13"/>
       <c r="AE66" s="14"/>
     </row>
     <row r="67" spans="1:31" ht="24.75" customHeight="1">
@@ -7911,8 +7795,8 @@
       <c r="V67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W67" s="13" t="b">
-        <v>1</v>
+      <c r="W67" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X67" s="14"/>
       <c r="Y67" s="15">
@@ -7920,13 +7804,11 @@
       </c>
       <c r="Z67" s="14"/>
       <c r="AA67" s="14"/>
-      <c r="AB67" s="13" t="b">
-        <v>0</v>
+      <c r="AB67" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC67" s="14"/>
-      <c r="AD67" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD67" s="13"/>
       <c r="AE67" s="14"/>
     </row>
     <row r="68" spans="1:31" ht="24.75" customHeight="1">
@@ -7992,8 +7874,8 @@
       <c r="V68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W68" s="13" t="b">
-        <v>1</v>
+      <c r="W68" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X68" s="14"/>
       <c r="Y68" s="15">
@@ -8001,13 +7883,11 @@
       </c>
       <c r="Z68" s="14"/>
       <c r="AA68" s="14"/>
-      <c r="AB68" s="13" t="b">
-        <v>0</v>
+      <c r="AB68" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC68" s="14"/>
-      <c r="AD68" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD68" s="13"/>
       <c r="AE68" s="14"/>
     </row>
     <row r="69" spans="1:31" ht="24.75" customHeight="1">
@@ -8075,8 +7955,8 @@
       <c r="V69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="13" t="b">
-        <v>1</v>
+      <c r="W69" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X69" s="14"/>
       <c r="Y69" s="15">
@@ -8084,13 +7964,11 @@
       </c>
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
-      <c r="AB69" s="13" t="b">
-        <v>0</v>
+      <c r="AB69" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC69" s="14"/>
-      <c r="AD69" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD69" s="13"/>
       <c r="AE69" s="14"/>
     </row>
     <row r="70" spans="1:31" ht="24.75" customHeight="1">
@@ -8158,8 +8036,8 @@
       <c r="V70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W70" s="13" t="b">
-        <v>1</v>
+      <c r="W70" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X70" s="14"/>
       <c r="Y70" s="15">
@@ -8167,8 +8045,8 @@
       </c>
       <c r="Z70" s="14"/>
       <c r="AA70" s="14"/>
-      <c r="AB70" s="13" t="b">
-        <v>0</v>
+      <c r="AB70" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC70" s="14"/>
       <c r="AD70" s="14"/>
@@ -8239,8 +8117,8 @@
       <c r="V71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W71" s="13" t="b">
-        <v>1</v>
+      <c r="W71" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X71" s="14"/>
       <c r="Y71" s="15">
@@ -8248,13 +8126,11 @@
       </c>
       <c r="Z71" s="14"/>
       <c r="AA71" s="14"/>
-      <c r="AB71" s="13" t="b">
-        <v>0</v>
+      <c r="AB71" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC71" s="14"/>
-      <c r="AD71" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD71" s="13"/>
       <c r="AE71" s="14"/>
     </row>
     <row r="72" spans="1:31" ht="24.75" customHeight="1">
@@ -8322,8 +8198,8 @@
       <c r="V72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W72" s="13" t="b">
-        <v>1</v>
+      <c r="W72" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X72" s="14"/>
       <c r="Y72" s="15">
@@ -8331,8 +8207,8 @@
       </c>
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
-      <c r="AB72" s="13" t="b">
-        <v>0</v>
+      <c r="AB72" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC72" s="14"/>
       <c r="AD72" s="14"/>
@@ -8403,8 +8279,8 @@
       <c r="V73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W73" s="13" t="b">
-        <v>1</v>
+      <c r="W73" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X73" s="14"/>
       <c r="Y73" s="15">
@@ -8412,13 +8288,11 @@
       </c>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
-      <c r="AB73" s="13" t="b">
-        <v>0</v>
+      <c r="AB73" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC73" s="14"/>
-      <c r="AD73" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD73" s="13"/>
       <c r="AE73" s="14"/>
     </row>
     <row r="74" spans="1:31" ht="24.75" customHeight="1">
@@ -8486,8 +8360,8 @@
       <c r="V74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W74" s="13" t="b">
-        <v>1</v>
+      <c r="W74" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X74" s="14"/>
       <c r="Y74" s="15">
@@ -8495,13 +8369,11 @@
       </c>
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
-      <c r="AB74" s="13" t="b">
-        <v>0</v>
+      <c r="AB74" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC74" s="14"/>
-      <c r="AD74" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD74" s="13"/>
       <c r="AE74" s="14"/>
     </row>
     <row r="75" spans="1:31" ht="24.75" customHeight="1">
@@ -8569,8 +8441,8 @@
       <c r="V75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W75" s="13" t="b">
-        <v>1</v>
+      <c r="W75" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X75" s="14"/>
       <c r="Y75" s="15">
@@ -8578,13 +8450,11 @@
       </c>
       <c r="Z75" s="14"/>
       <c r="AA75" s="14"/>
-      <c r="AB75" s="13" t="b">
-        <v>0</v>
+      <c r="AB75" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC75" s="14"/>
-      <c r="AD75" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD75" s="13"/>
       <c r="AE75" s="14"/>
     </row>
     <row r="76" spans="1:31" ht="24.75" customHeight="1">
@@ -8652,8 +8522,8 @@
       <c r="V76" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W76" s="13" t="b">
-        <v>1</v>
+      <c r="W76" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X76" s="14"/>
       <c r="Y76" s="15">
@@ -8661,13 +8531,11 @@
       </c>
       <c r="Z76" s="14"/>
       <c r="AA76" s="14"/>
-      <c r="AB76" s="13" t="b">
-        <v>0</v>
+      <c r="AB76" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC76" s="14"/>
-      <c r="AD76" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD76" s="13"/>
       <c r="AE76" s="14"/>
     </row>
     <row r="77" spans="1:31" ht="24.75" customHeight="1">
@@ -8735,8 +8603,8 @@
       <c r="V77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W77" s="13" t="b">
-        <v>1</v>
+      <c r="W77" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X77" s="14"/>
       <c r="Y77" s="15">
@@ -8744,13 +8612,11 @@
       </c>
       <c r="Z77" s="14"/>
       <c r="AA77" s="14"/>
-      <c r="AB77" s="13" t="b">
-        <v>0</v>
+      <c r="AB77" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC77" s="14"/>
-      <c r="AD77" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD77" s="13"/>
       <c r="AE77" s="14"/>
     </row>
     <row r="78" spans="1:31" ht="24.75" customHeight="1">
@@ -8818,8 +8684,8 @@
       <c r="V78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W78" s="13" t="b">
-        <v>1</v>
+      <c r="W78" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X78" s="14"/>
       <c r="Y78" s="15">
@@ -8827,13 +8693,11 @@
       </c>
       <c r="Z78" s="14"/>
       <c r="AA78" s="14"/>
-      <c r="AB78" s="13" t="b">
-        <v>0</v>
+      <c r="AB78" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC78" s="14"/>
-      <c r="AD78" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD78" s="13"/>
       <c r="AE78" s="14"/>
     </row>
     <row r="79" spans="1:31" ht="24.75" customHeight="1">
@@ -8901,8 +8765,8 @@
       <c r="V79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W79" s="13" t="b">
-        <v>1</v>
+      <c r="W79" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X79" s="14"/>
       <c r="Y79" s="15">
@@ -8910,13 +8774,11 @@
       </c>
       <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
-      <c r="AB79" s="13" t="b">
-        <v>0</v>
+      <c r="AB79" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC79" s="14"/>
-      <c r="AD79" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD79" s="13"/>
       <c r="AE79" s="14"/>
     </row>
     <row r="80" spans="1:31" ht="24.75" customHeight="1">
@@ -8984,8 +8846,8 @@
       <c r="V80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W80" s="13" t="b">
-        <v>1</v>
+      <c r="W80" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X80" s="14"/>
       <c r="Y80" s="15">
@@ -8993,13 +8855,11 @@
       </c>
       <c r="Z80" s="14"/>
       <c r="AA80" s="14"/>
-      <c r="AB80" s="13" t="b">
-        <v>0</v>
+      <c r="AB80" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC80" s="14"/>
-      <c r="AD80" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD80" s="13"/>
       <c r="AE80" s="14"/>
     </row>
     <row r="81" spans="1:31" ht="24.75" customHeight="1">
@@ -9067,8 +8927,8 @@
       <c r="V81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="13" t="b">
-        <v>1</v>
+      <c r="W81" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X81" s="14"/>
       <c r="Y81" s="15">
@@ -9076,13 +8936,11 @@
       </c>
       <c r="Z81" s="14"/>
       <c r="AA81" s="14"/>
-      <c r="AB81" s="13" t="b">
-        <v>0</v>
+      <c r="AB81" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC81" s="14"/>
-      <c r="AD81" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD81" s="13"/>
       <c r="AE81" s="14"/>
     </row>
     <row r="82" spans="1:31" ht="24.75" customHeight="1">
@@ -9150,8 +9008,8 @@
       <c r="V82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W82" s="13" t="b">
-        <v>1</v>
+      <c r="W82" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X82" s="14"/>
       <c r="Y82" s="15">
@@ -9159,13 +9017,11 @@
       </c>
       <c r="Z82" s="14"/>
       <c r="AA82" s="14"/>
-      <c r="AB82" s="13" t="b">
-        <v>0</v>
+      <c r="AB82" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC82" s="14"/>
-      <c r="AD82" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD82" s="13"/>
       <c r="AE82" s="14"/>
     </row>
     <row r="83" spans="1:31" ht="24.75" customHeight="1">
@@ -9233,8 +9089,8 @@
       <c r="V83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W83" s="13" t="b">
-        <v>1</v>
+      <c r="W83" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X83" s="14"/>
       <c r="Y83" s="15">
@@ -9242,13 +9098,11 @@
       </c>
       <c r="Z83" s="14"/>
       <c r="AA83" s="14"/>
-      <c r="AB83" s="13" t="b">
-        <v>0</v>
+      <c r="AB83" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC83" s="14"/>
-      <c r="AD83" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD83" s="13"/>
       <c r="AE83" s="14"/>
     </row>
     <row r="84" spans="1:31" ht="24.75" customHeight="1">
@@ -9316,8 +9170,8 @@
       <c r="V84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W84" s="13" t="b">
-        <v>1</v>
+      <c r="W84" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X84" s="14"/>
       <c r="Y84" s="15">
@@ -9325,13 +9179,11 @@
       </c>
       <c r="Z84" s="14"/>
       <c r="AA84" s="14"/>
-      <c r="AB84" s="13" t="b">
-        <v>0</v>
+      <c r="AB84" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC84" s="14"/>
-      <c r="AD84" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD84" s="13"/>
       <c r="AE84" s="14"/>
     </row>
     <row r="85" spans="1:31" ht="24.75" customHeight="1">
@@ -9399,8 +9251,8 @@
       <c r="V85" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W85" s="13" t="b">
-        <v>1</v>
+      <c r="W85" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X85" s="14"/>
       <c r="Y85" s="15">
@@ -9408,13 +9260,11 @@
       </c>
       <c r="Z85" s="14"/>
       <c r="AA85" s="14"/>
-      <c r="AB85" s="13" t="b">
-        <v>0</v>
+      <c r="AB85" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC85" s="14"/>
-      <c r="AD85" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD85" s="13"/>
       <c r="AE85" s="14"/>
     </row>
     <row r="86" spans="1:31" ht="24.75" customHeight="1">
@@ -9482,8 +9332,8 @@
       <c r="V86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W86" s="13" t="b">
-        <v>1</v>
+      <c r="W86" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X86" s="14"/>
       <c r="Y86" s="15">
@@ -9491,13 +9341,11 @@
       </c>
       <c r="Z86" s="14"/>
       <c r="AA86" s="14"/>
-      <c r="AB86" s="13" t="b">
-        <v>0</v>
+      <c r="AB86" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC86" s="14"/>
-      <c r="AD86" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD86" s="13"/>
       <c r="AE86" s="14"/>
     </row>
     <row r="87" spans="1:31" ht="24.75" customHeight="1">
@@ -9565,8 +9413,8 @@
       <c r="V87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W87" s="13" t="b">
-        <v>1</v>
+      <c r="W87" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X87" s="14"/>
       <c r="Y87" s="15">
@@ -9574,13 +9422,11 @@
       </c>
       <c r="Z87" s="14"/>
       <c r="AA87" s="14"/>
-      <c r="AB87" s="13" t="b">
-        <v>0</v>
+      <c r="AB87" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC87" s="14"/>
-      <c r="AD87" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD87" s="13"/>
       <c r="AE87" s="14"/>
     </row>
     <row r="88" spans="1:31" ht="24.75" customHeight="1">
@@ -9648,8 +9494,8 @@
       <c r="V88" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W88" s="13" t="b">
-        <v>1</v>
+      <c r="W88" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X88" s="14"/>
       <c r="Y88" s="15">
@@ -9657,13 +9503,11 @@
       </c>
       <c r="Z88" s="14"/>
       <c r="AA88" s="14"/>
-      <c r="AB88" s="13" t="b">
-        <v>0</v>
+      <c r="AB88" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC88" s="14"/>
-      <c r="AD88" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD88" s="13"/>
       <c r="AE88" s="14"/>
     </row>
     <row r="89" spans="1:31" ht="24.75" customHeight="1">
@@ -9731,8 +9575,8 @@
       <c r="V89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W89" s="13" t="b">
-        <v>1</v>
+      <c r="W89" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X89" s="14"/>
       <c r="Y89" s="15">
@@ -9740,13 +9584,11 @@
       </c>
       <c r="Z89" s="14"/>
       <c r="AA89" s="14"/>
-      <c r="AB89" s="13" t="b">
-        <v>0</v>
+      <c r="AB89" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC89" s="14"/>
-      <c r="AD89" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD89" s="13"/>
       <c r="AE89" s="14"/>
     </row>
     <row r="90" spans="1:31" ht="24.75" customHeight="1">
@@ -9814,8 +9656,8 @@
       <c r="V90" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W90" s="13" t="b">
-        <v>1</v>
+      <c r="W90" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X90" s="14"/>
       <c r="Y90" s="15">
@@ -9823,13 +9665,11 @@
       </c>
       <c r="Z90" s="14"/>
       <c r="AA90" s="14"/>
-      <c r="AB90" s="13" t="b">
-        <v>0</v>
+      <c r="AB90" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC90" s="14"/>
-      <c r="AD90" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD90" s="13"/>
       <c r="AE90" s="14"/>
     </row>
     <row r="91" spans="1:31" ht="24.75" customHeight="1">
@@ -9897,8 +9737,8 @@
       <c r="V91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W91" s="13" t="b">
-        <v>1</v>
+      <c r="W91" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X91" s="14"/>
       <c r="Y91" s="15">
@@ -9906,13 +9746,11 @@
       </c>
       <c r="Z91" s="14"/>
       <c r="AA91" s="14"/>
-      <c r="AB91" s="13" t="b">
-        <v>0</v>
+      <c r="AB91" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC91" s="14"/>
-      <c r="AD91" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD91" s="13"/>
       <c r="AE91" s="14"/>
     </row>
     <row r="92" spans="1:31" ht="24.75" customHeight="1">
@@ -9980,8 +9818,8 @@
       <c r="V92" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W92" s="13" t="b">
-        <v>1</v>
+      <c r="W92" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X92" s="14"/>
       <c r="Y92" s="15">
@@ -9989,13 +9827,11 @@
       </c>
       <c r="Z92" s="14"/>
       <c r="AA92" s="14"/>
-      <c r="AB92" s="13" t="b">
-        <v>0</v>
+      <c r="AB92" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC92" s="14"/>
-      <c r="AD92" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD92" s="13"/>
       <c r="AE92" s="14"/>
     </row>
     <row r="93" spans="1:31" ht="24.75" customHeight="1">
@@ -10063,8 +9899,8 @@
       <c r="V93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W93" s="13" t="b">
-        <v>1</v>
+      <c r="W93" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X93" s="14"/>
       <c r="Y93" s="15">
@@ -10072,13 +9908,11 @@
       </c>
       <c r="Z93" s="14"/>
       <c r="AA93" s="14"/>
-      <c r="AB93" s="13" t="b">
-        <v>0</v>
+      <c r="AB93" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC93" s="14"/>
-      <c r="AD93" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD93" s="13"/>
       <c r="AE93" s="14"/>
     </row>
     <row r="94" spans="1:31" ht="24.75" customHeight="1">
@@ -10146,8 +9980,8 @@
       <c r="V94" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W94" s="13" t="b">
-        <v>1</v>
+      <c r="W94" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X94" s="14"/>
       <c r="Y94" s="15">
@@ -10155,13 +9989,11 @@
       </c>
       <c r="Z94" s="14"/>
       <c r="AA94" s="14"/>
-      <c r="AB94" s="13" t="b">
-        <v>0</v>
+      <c r="AB94" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC94" s="14"/>
-      <c r="AD94" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD94" s="13"/>
       <c r="AE94" s="14"/>
     </row>
     <row r="95" spans="1:31" ht="24.75" customHeight="1">
@@ -10229,8 +10061,8 @@
       <c r="V95" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W95" s="13" t="b">
-        <v>1</v>
+      <c r="W95" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X95" s="14"/>
       <c r="Y95" s="15">
@@ -10238,13 +10070,11 @@
       </c>
       <c r="Z95" s="14"/>
       <c r="AA95" s="14"/>
-      <c r="AB95" s="13" t="b">
-        <v>0</v>
+      <c r="AB95" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC95" s="14"/>
-      <c r="AD95" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD95" s="13"/>
       <c r="AE95" s="14"/>
     </row>
     <row r="96" spans="1:31" ht="24.75" customHeight="1">
@@ -10312,8 +10142,8 @@
       <c r="V96" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W96" s="13" t="b">
-        <v>1</v>
+      <c r="W96" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X96" s="14"/>
       <c r="Y96" s="15">
@@ -10321,13 +10151,11 @@
       </c>
       <c r="Z96" s="14"/>
       <c r="AA96" s="14"/>
-      <c r="AB96" s="13" t="b">
-        <v>0</v>
+      <c r="AB96" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC96" s="14"/>
-      <c r="AD96" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD96" s="13"/>
       <c r="AE96" s="14"/>
     </row>
     <row r="97" spans="1:31" ht="24.75" customHeight="1">
@@ -10395,8 +10223,8 @@
       <c r="V97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W97" s="13" t="b">
-        <v>1</v>
+      <c r="W97" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X97" s="14"/>
       <c r="Y97" s="15">
@@ -10404,13 +10232,11 @@
       </c>
       <c r="Z97" s="14"/>
       <c r="AA97" s="14"/>
-      <c r="AB97" s="13" t="b">
-        <v>0</v>
+      <c r="AB97" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC97" s="14"/>
-      <c r="AD97" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD97" s="13"/>
       <c r="AE97" s="14"/>
     </row>
     <row r="98" spans="1:31" ht="24.75" customHeight="1">
@@ -10476,8 +10302,8 @@
       <c r="V98" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W98" s="13" t="b">
-        <v>1</v>
+      <c r="W98" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X98" s="14"/>
       <c r="Y98" s="15">
@@ -10485,13 +10311,11 @@
       </c>
       <c r="Z98" s="14"/>
       <c r="AA98" s="14"/>
-      <c r="AB98" s="13" t="b">
-        <v>0</v>
+      <c r="AB98" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC98" s="14"/>
-      <c r="AD98" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD98" s="13"/>
       <c r="AE98" s="14"/>
     </row>
     <row r="99" spans="1:31" ht="24.75" customHeight="1">
@@ -10559,8 +10383,8 @@
       <c r="V99" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W99" s="13" t="b">
-        <v>1</v>
+      <c r="W99" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X99" s="14"/>
       <c r="Y99" s="15">
@@ -10568,13 +10392,11 @@
       </c>
       <c r="Z99" s="14"/>
       <c r="AA99" s="14"/>
-      <c r="AB99" s="13" t="b">
-        <v>0</v>
+      <c r="AB99" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC99" s="14"/>
-      <c r="AD99" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD99" s="13"/>
       <c r="AE99" s="14"/>
     </row>
     <row r="100" spans="1:31" ht="24.75" customHeight="1">
@@ -10642,8 +10464,8 @@
       <c r="V100" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W100" s="13" t="b">
-        <v>1</v>
+      <c r="W100" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X100" s="14"/>
       <c r="Y100" s="15">
@@ -10651,13 +10473,11 @@
       </c>
       <c r="Z100" s="14"/>
       <c r="AA100" s="14"/>
-      <c r="AB100" s="13" t="b">
-        <v>0</v>
+      <c r="AB100" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC100" s="14"/>
-      <c r="AD100" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD100" s="13"/>
       <c r="AE100" s="14"/>
     </row>
     <row r="101" spans="1:31" ht="24.75" customHeight="1">
@@ -10725,8 +10545,8 @@
       <c r="V101" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W101" s="13" t="b">
-        <v>1</v>
+      <c r="W101" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X101" s="14"/>
       <c r="Y101" s="15">
@@ -10734,13 +10554,11 @@
       </c>
       <c r="Z101" s="14"/>
       <c r="AA101" s="14"/>
-      <c r="AB101" s="13" t="b">
-        <v>0</v>
+      <c r="AB101" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC101" s="14"/>
-      <c r="AD101" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD101" s="13"/>
       <c r="AE101" s="14"/>
     </row>
     <row r="102" spans="1:31" ht="24.75" customHeight="1">
@@ -10808,8 +10626,8 @@
       <c r="V102" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W102" s="13" t="b">
-        <v>1</v>
+      <c r="W102" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X102" s="14"/>
       <c r="Y102" s="15">
@@ -10817,13 +10635,11 @@
       </c>
       <c r="Z102" s="14"/>
       <c r="AA102" s="14"/>
-      <c r="AB102" s="13" t="b">
-        <v>0</v>
+      <c r="AB102" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC102" s="14"/>
-      <c r="AD102" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD102" s="13"/>
       <c r="AE102" s="14"/>
     </row>
     <row r="103" spans="1:31" ht="24.75" customHeight="1">
@@ -10891,8 +10707,8 @@
       <c r="V103" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W103" s="13" t="b">
-        <v>1</v>
+      <c r="W103" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X103" s="14"/>
       <c r="Y103" s="15">
@@ -10900,13 +10716,11 @@
       </c>
       <c r="Z103" s="14"/>
       <c r="AA103" s="14"/>
-      <c r="AB103" s="13" t="b">
-        <v>0</v>
+      <c r="AB103" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC103" s="14"/>
-      <c r="AD103" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD103" s="13"/>
       <c r="AE103" s="14"/>
     </row>
     <row r="104" spans="1:31" ht="24.75" customHeight="1">
@@ -10974,8 +10788,8 @@
       <c r="V104" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W104" s="13" t="b">
-        <v>1</v>
+      <c r="W104" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X104" s="14"/>
       <c r="Y104" s="15">
@@ -10983,8 +10797,8 @@
       </c>
       <c r="Z104" s="14"/>
       <c r="AA104" s="14"/>
-      <c r="AB104" s="13" t="b">
-        <v>0</v>
+      <c r="AB104" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC104" s="14"/>
       <c r="AD104" s="14"/>
@@ -11055,8 +10869,8 @@
       <c r="V105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W105" s="13" t="b">
-        <v>1</v>
+      <c r="W105" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X105" s="14"/>
       <c r="Y105" s="15">
@@ -11064,13 +10878,11 @@
       </c>
       <c r="Z105" s="14"/>
       <c r="AA105" s="14"/>
-      <c r="AB105" s="13" t="b">
-        <v>0</v>
+      <c r="AB105" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC105" s="14"/>
-      <c r="AD105" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD105" s="13"/>
       <c r="AE105" s="14"/>
     </row>
     <row r="106" spans="1:31" ht="24.75" customHeight="1">
@@ -11138,8 +10950,8 @@
       <c r="V106" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W106" s="13" t="b">
-        <v>1</v>
+      <c r="W106" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X106" s="14"/>
       <c r="Y106" s="15">
@@ -11147,13 +10959,11 @@
       </c>
       <c r="Z106" s="14"/>
       <c r="AA106" s="14"/>
-      <c r="AB106" s="13" t="b">
-        <v>0</v>
+      <c r="AB106" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC106" s="14"/>
-      <c r="AD106" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD106" s="13"/>
       <c r="AE106" s="14"/>
     </row>
     <row r="107" spans="1:31" ht="24.75" customHeight="1">
@@ -11221,8 +11031,8 @@
       <c r="V107" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W107" s="13" t="b">
-        <v>1</v>
+      <c r="W107" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X107" s="14"/>
       <c r="Y107" s="15">
@@ -11230,13 +11040,11 @@
       </c>
       <c r="Z107" s="14"/>
       <c r="AA107" s="14"/>
-      <c r="AB107" s="13" t="b">
-        <v>0</v>
+      <c r="AB107" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC107" s="14"/>
-      <c r="AD107" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD107" s="13"/>
       <c r="AE107" s="14"/>
     </row>
     <row r="108" spans="1:31" ht="24.75" customHeight="1">
@@ -11304,8 +11112,8 @@
       <c r="V108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W108" s="13" t="b">
-        <v>1</v>
+      <c r="W108" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X108" s="14"/>
       <c r="Y108" s="15">
@@ -11313,13 +11121,11 @@
       </c>
       <c r="Z108" s="14"/>
       <c r="AA108" s="14"/>
-      <c r="AB108" s="13" t="b">
-        <v>0</v>
+      <c r="AB108" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC108" s="14"/>
-      <c r="AD108" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD108" s="13"/>
       <c r="AE108" s="14"/>
     </row>
     <row r="109" spans="1:31" ht="24.75" customHeight="1">
@@ -11387,8 +11193,8 @@
       <c r="V109" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W109" s="13" t="b">
-        <v>1</v>
+      <c r="W109" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X109" s="14"/>
       <c r="Y109" s="15">
@@ -11396,13 +11202,11 @@
       </c>
       <c r="Z109" s="14"/>
       <c r="AA109" s="14"/>
-      <c r="AB109" s="13" t="b">
-        <v>0</v>
+      <c r="AB109" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC109" s="14"/>
-      <c r="AD109" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD109" s="13"/>
       <c r="AE109" s="14"/>
     </row>
     <row r="110" spans="1:31" ht="24.75" customHeight="1">
@@ -11470,8 +11274,8 @@
       <c r="V110" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W110" s="13" t="b">
-        <v>1</v>
+      <c r="W110" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X110" s="14"/>
       <c r="Y110" s="15">
@@ -11479,13 +11283,11 @@
       </c>
       <c r="Z110" s="14"/>
       <c r="AA110" s="14"/>
-      <c r="AB110" s="13" t="b">
-        <v>0</v>
+      <c r="AB110" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC110" s="14"/>
-      <c r="AD110" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD110" s="13"/>
       <c r="AE110" s="14"/>
     </row>
     <row r="111" spans="1:31" ht="24.75" customHeight="1">
@@ -11553,8 +11355,8 @@
       <c r="V111" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W111" s="13" t="b">
-        <v>1</v>
+      <c r="W111" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X111" s="14"/>
       <c r="Y111" s="15">
@@ -11562,13 +11364,11 @@
       </c>
       <c r="Z111" s="14"/>
       <c r="AA111" s="14"/>
-      <c r="AB111" s="13" t="b">
-        <v>0</v>
+      <c r="AB111" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC111" s="14"/>
-      <c r="AD111" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD111" s="13"/>
       <c r="AE111" s="14"/>
     </row>
     <row r="112" spans="1:31" ht="24.75" customHeight="1">
@@ -11636,8 +11436,8 @@
       <c r="V112" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W112" s="13" t="b">
-        <v>1</v>
+      <c r="W112" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X112" s="14"/>
       <c r="Y112" s="15">
@@ -11645,13 +11445,11 @@
       </c>
       <c r="Z112" s="14"/>
       <c r="AA112" s="14"/>
-      <c r="AB112" s="13" t="b">
-        <v>0</v>
+      <c r="AB112" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC112" s="14"/>
-      <c r="AD112" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD112" s="13"/>
       <c r="AE112" s="14"/>
     </row>
     <row r="113" spans="1:31" ht="24.75" customHeight="1">
@@ -11719,8 +11517,8 @@
       <c r="V113" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W113" s="13" t="b">
-        <v>1</v>
+      <c r="W113" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X113" s="14"/>
       <c r="Y113" s="15">
@@ -11728,13 +11526,11 @@
       </c>
       <c r="Z113" s="14"/>
       <c r="AA113" s="14"/>
-      <c r="AB113" s="13" t="b">
-        <v>0</v>
+      <c r="AB113" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC113" s="14"/>
-      <c r="AD113" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD113" s="13"/>
       <c r="AE113" s="14"/>
     </row>
     <row r="114" spans="1:31" ht="24.75" customHeight="1">
@@ -11802,8 +11598,8 @@
       <c r="V114" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W114" s="13" t="b">
-        <v>1</v>
+      <c r="W114" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X114" s="14"/>
       <c r="Y114" s="15">
@@ -11811,13 +11607,11 @@
       </c>
       <c r="Z114" s="14"/>
       <c r="AA114" s="14"/>
-      <c r="AB114" s="13" t="b">
-        <v>0</v>
+      <c r="AB114" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC114" s="14"/>
-      <c r="AD114" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD114" s="13"/>
       <c r="AE114" s="14"/>
     </row>
     <row r="115" spans="1:31" ht="24.75" customHeight="1">
@@ -11885,8 +11679,8 @@
       <c r="V115" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W115" s="13" t="b">
-        <v>1</v>
+      <c r="W115" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X115" s="14"/>
       <c r="Y115" s="15">
@@ -11894,13 +11688,11 @@
       </c>
       <c r="Z115" s="14"/>
       <c r="AA115" s="14"/>
-      <c r="AB115" s="13" t="b">
-        <v>0</v>
+      <c r="AB115" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC115" s="14"/>
-      <c r="AD115" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD115" s="13"/>
       <c r="AE115" s="14"/>
     </row>
     <row r="116" spans="1:31" ht="24.75" customHeight="1">
@@ -11968,8 +11760,8 @@
       <c r="V116" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W116" s="13" t="b">
-        <v>1</v>
+      <c r="W116" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X116" s="14"/>
       <c r="Y116" s="15">
@@ -11977,13 +11769,11 @@
       </c>
       <c r="Z116" s="14"/>
       <c r="AA116" s="14"/>
-      <c r="AB116" s="13" t="b">
-        <v>0</v>
+      <c r="AB116" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC116" s="14"/>
-      <c r="AD116" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD116" s="13"/>
       <c r="AE116" s="14"/>
     </row>
     <row r="117" spans="1:31" ht="24.75" customHeight="1">
@@ -12051,8 +11841,8 @@
       <c r="V117" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W117" s="13" t="b">
-        <v>1</v>
+      <c r="W117" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X117" s="14"/>
       <c r="Y117" s="15">
@@ -12060,13 +11850,11 @@
       </c>
       <c r="Z117" s="14"/>
       <c r="AA117" s="14"/>
-      <c r="AB117" s="13" t="b">
-        <v>0</v>
+      <c r="AB117" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC117" s="14"/>
-      <c r="AD117" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD117" s="13"/>
       <c r="AE117" s="14"/>
     </row>
     <row r="118" spans="1:31" ht="24.75" customHeight="1">
@@ -12134,8 +11922,8 @@
       <c r="V118" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W118" s="13" t="b">
-        <v>1</v>
+      <c r="W118" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X118" s="14"/>
       <c r="Y118" s="15">
@@ -12143,13 +11931,11 @@
       </c>
       <c r="Z118" s="14"/>
       <c r="AA118" s="14"/>
-      <c r="AB118" s="13" t="b">
-        <v>0</v>
+      <c r="AB118" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC118" s="14"/>
-      <c r="AD118" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD118" s="13"/>
       <c r="AE118" s="14"/>
     </row>
     <row r="119" spans="1:31" ht="24.75" customHeight="1">
@@ -12217,8 +12003,8 @@
       <c r="V119" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W119" s="13" t="b">
-        <v>1</v>
+      <c r="W119" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X119" s="14"/>
       <c r="Y119" s="15">
@@ -12226,13 +12012,11 @@
       </c>
       <c r="Z119" s="14"/>
       <c r="AA119" s="14"/>
-      <c r="AB119" s="13" t="b">
-        <v>0</v>
+      <c r="AB119" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC119" s="14"/>
-      <c r="AD119" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD119" s="13"/>
       <c r="AE119" s="14"/>
     </row>
     <row r="120" spans="1:31" ht="24.75" customHeight="1">
@@ -12300,8 +12084,8 @@
       <c r="V120" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W120" s="13" t="b">
-        <v>1</v>
+      <c r="W120" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X120" s="14"/>
       <c r="Y120" s="15">
@@ -12309,13 +12093,11 @@
       </c>
       <c r="Z120" s="14"/>
       <c r="AA120" s="14"/>
-      <c r="AB120" s="13" t="b">
-        <v>0</v>
+      <c r="AB120" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC120" s="14"/>
-      <c r="AD120" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD120" s="13"/>
       <c r="AE120" s="14"/>
     </row>
     <row r="121" spans="1:31" ht="24.75" customHeight="1">
@@ -12381,8 +12163,8 @@
       <c r="V121" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W121" s="13" t="b">
-        <v>1</v>
+      <c r="W121" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X121" s="14"/>
       <c r="Y121" s="15">
@@ -12390,8 +12172,8 @@
       </c>
       <c r="Z121" s="14"/>
       <c r="AA121" s="14"/>
-      <c r="AB121" s="13" t="b">
-        <v>0</v>
+      <c r="AB121" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC121" s="14"/>
       <c r="AD121" s="14"/>
@@ -12462,8 +12244,8 @@
       <c r="V122" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W122" s="13" t="b">
-        <v>1</v>
+      <c r="W122" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X122" s="14"/>
       <c r="Y122" s="15">
@@ -12471,13 +12253,11 @@
       </c>
       <c r="Z122" s="14"/>
       <c r="AA122" s="14"/>
-      <c r="AB122" s="13" t="b">
-        <v>0</v>
+      <c r="AB122" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC122" s="14"/>
-      <c r="AD122" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD122" s="13"/>
       <c r="AE122" s="14"/>
     </row>
     <row r="123" spans="1:31" ht="24.75" customHeight="1">
@@ -12545,8 +12325,8 @@
       <c r="V123" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W123" s="13" t="b">
-        <v>1</v>
+      <c r="W123" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X123" s="14"/>
       <c r="Y123" s="15">
@@ -12554,13 +12334,11 @@
       </c>
       <c r="Z123" s="14"/>
       <c r="AA123" s="14"/>
-      <c r="AB123" s="13" t="b">
-        <v>0</v>
+      <c r="AB123" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC123" s="14"/>
-      <c r="AD123" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD123" s="13"/>
       <c r="AE123" s="14"/>
     </row>
     <row r="124" spans="1:31" ht="24.75" customHeight="1">
@@ -12628,8 +12406,8 @@
       <c r="V124" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W124" s="13" t="b">
-        <v>1</v>
+      <c r="W124" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X124" s="14"/>
       <c r="Y124" s="15">
@@ -12637,13 +12415,11 @@
       </c>
       <c r="Z124" s="14"/>
       <c r="AA124" s="14"/>
-      <c r="AB124" s="13" t="b">
-        <v>0</v>
+      <c r="AB124" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC124" s="14"/>
-      <c r="AD124" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD124" s="13"/>
       <c r="AE124" s="14"/>
     </row>
     <row r="125" spans="1:31" ht="24.75" customHeight="1">
@@ -12711,8 +12487,8 @@
       <c r="V125" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W125" s="13" t="b">
-        <v>1</v>
+      <c r="W125" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X125" s="14"/>
       <c r="Y125" s="15">
@@ -12720,13 +12496,11 @@
       </c>
       <c r="Z125" s="14"/>
       <c r="AA125" s="14"/>
-      <c r="AB125" s="13" t="b">
-        <v>0</v>
+      <c r="AB125" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC125" s="14"/>
-      <c r="AD125" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD125" s="13"/>
       <c r="AE125" s="14"/>
     </row>
     <row r="126" spans="1:31" ht="24.75" customHeight="1">
@@ -12794,8 +12568,8 @@
       <c r="V126" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W126" s="13" t="b">
-        <v>1</v>
+      <c r="W126" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X126" s="14"/>
       <c r="Y126" s="15">
@@ -12803,13 +12577,11 @@
       </c>
       <c r="Z126" s="14"/>
       <c r="AA126" s="14"/>
-      <c r="AB126" s="13" t="b">
-        <v>0</v>
+      <c r="AB126" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC126" s="14"/>
-      <c r="AD126" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD126" s="13"/>
       <c r="AE126" s="14"/>
     </row>
     <row r="127" spans="1:31" ht="24.75" customHeight="1">
@@ -12877,8 +12649,8 @@
       <c r="V127" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W127" s="13" t="b">
-        <v>1</v>
+      <c r="W127" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X127" s="14"/>
       <c r="Y127" s="15">
@@ -12886,8 +12658,8 @@
       </c>
       <c r="Z127" s="14"/>
       <c r="AA127" s="14"/>
-      <c r="AB127" s="13" t="b">
-        <v>0</v>
+      <c r="AB127" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC127" s="14"/>
       <c r="AD127" s="14"/>
@@ -12958,8 +12730,8 @@
       <c r="V128" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W128" s="13" t="b">
-        <v>1</v>
+      <c r="W128" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X128" s="14"/>
       <c r="Y128" s="15">
@@ -12967,13 +12739,11 @@
       </c>
       <c r="Z128" s="14"/>
       <c r="AA128" s="14"/>
-      <c r="AB128" s="13" t="b">
-        <v>0</v>
+      <c r="AB128" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC128" s="14"/>
-      <c r="AD128" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD128" s="13"/>
       <c r="AE128" s="14"/>
     </row>
     <row r="129" spans="1:31" ht="24.75" customHeight="1">
@@ -13041,8 +12811,8 @@
       <c r="V129" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W129" s="13" t="b">
-        <v>1</v>
+      <c r="W129" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X129" s="14"/>
       <c r="Y129" s="15">
@@ -13050,13 +12820,11 @@
       </c>
       <c r="Z129" s="14"/>
       <c r="AA129" s="14"/>
-      <c r="AB129" s="13" t="b">
-        <v>0</v>
+      <c r="AB129" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC129" s="14"/>
-      <c r="AD129" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD129" s="13"/>
       <c r="AE129" s="14"/>
     </row>
     <row r="130" spans="1:31" ht="24.75" customHeight="1">
@@ -13124,8 +12892,8 @@
       <c r="V130" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W130" s="13" t="b">
-        <v>1</v>
+      <c r="W130" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X130" s="14"/>
       <c r="Y130" s="15">
@@ -13133,13 +12901,11 @@
       </c>
       <c r="Z130" s="14"/>
       <c r="AA130" s="14"/>
-      <c r="AB130" s="13" t="b">
-        <v>0</v>
+      <c r="AB130" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC130" s="14"/>
-      <c r="AD130" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD130" s="13"/>
       <c r="AE130" s="14"/>
     </row>
     <row r="131" spans="1:31" ht="24.75" customHeight="1">
@@ -13207,8 +12973,8 @@
       <c r="V131" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W131" s="13" t="b">
-        <v>1</v>
+      <c r="W131" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X131" s="14"/>
       <c r="Y131" s="15">
@@ -13216,13 +12982,11 @@
       </c>
       <c r="Z131" s="14"/>
       <c r="AA131" s="14"/>
-      <c r="AB131" s="13" t="b">
-        <v>0</v>
+      <c r="AB131" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC131" s="14"/>
-      <c r="AD131" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD131" s="13"/>
       <c r="AE131" s="14"/>
     </row>
     <row r="132" spans="1:31" ht="24.75" customHeight="1">
@@ -13290,8 +13054,8 @@
       <c r="V132" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W132" s="13" t="b">
-        <v>1</v>
+      <c r="W132" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X132" s="14"/>
       <c r="Y132" s="15">
@@ -13299,13 +13063,11 @@
       </c>
       <c r="Z132" s="14"/>
       <c r="AA132" s="14"/>
-      <c r="AB132" s="13" t="b">
-        <v>0</v>
+      <c r="AB132" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC132" s="14"/>
-      <c r="AD132" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD132" s="13"/>
       <c r="AE132" s="14"/>
     </row>
     <row r="133" spans="1:31" ht="24.75" customHeight="1">
@@ -13373,8 +13135,8 @@
       <c r="V133" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W133" s="13" t="b">
-        <v>1</v>
+      <c r="W133" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X133" s="14"/>
       <c r="Y133" s="15">
@@ -13382,13 +13144,11 @@
       </c>
       <c r="Z133" s="14"/>
       <c r="AA133" s="14"/>
-      <c r="AB133" s="13" t="b">
-        <v>0</v>
+      <c r="AB133" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC133" s="14"/>
-      <c r="AD133" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD133" s="13"/>
       <c r="AE133" s="14"/>
     </row>
     <row r="134" spans="1:31" ht="24.75" customHeight="1">
@@ -13456,8 +13216,8 @@
       <c r="V134" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W134" s="13" t="b">
-        <v>1</v>
+      <c r="W134" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X134" s="14"/>
       <c r="Y134" s="15">
@@ -13465,13 +13225,11 @@
       </c>
       <c r="Z134" s="14"/>
       <c r="AA134" s="14"/>
-      <c r="AB134" s="13" t="b">
-        <v>0</v>
+      <c r="AB134" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC134" s="14"/>
-      <c r="AD134" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD134" s="13"/>
       <c r="AE134" s="14"/>
     </row>
     <row r="135" spans="1:31" ht="24.75" customHeight="1">
@@ -13539,8 +13297,8 @@
       <c r="V135" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W135" s="13" t="b">
-        <v>1</v>
+      <c r="W135" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X135" s="14"/>
       <c r="Y135" s="15">
@@ -13548,13 +13306,11 @@
       </c>
       <c r="Z135" s="14"/>
       <c r="AA135" s="14"/>
-      <c r="AB135" s="13" t="b">
-        <v>0</v>
+      <c r="AB135" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC135" s="14"/>
-      <c r="AD135" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD135" s="13"/>
       <c r="AE135" s="14"/>
     </row>
     <row r="136" spans="1:31" ht="24.75" customHeight="1">
@@ -13622,8 +13378,8 @@
       <c r="V136" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W136" s="13" t="b">
-        <v>1</v>
+      <c r="W136" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X136" s="14"/>
       <c r="Y136" s="15">
@@ -13631,13 +13387,11 @@
       </c>
       <c r="Z136" s="14"/>
       <c r="AA136" s="14"/>
-      <c r="AB136" s="13" t="b">
-        <v>0</v>
+      <c r="AB136" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC136" s="14"/>
-      <c r="AD136" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD136" s="13"/>
       <c r="AE136" s="14"/>
     </row>
     <row r="137" spans="1:31" ht="24.75" customHeight="1">
@@ -13705,8 +13459,8 @@
       <c r="V137" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W137" s="13" t="b">
-        <v>1</v>
+      <c r="W137" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X137" s="14"/>
       <c r="Y137" s="15">
@@ -13714,13 +13468,11 @@
       </c>
       <c r="Z137" s="14"/>
       <c r="AA137" s="14"/>
-      <c r="AB137" s="13" t="b">
-        <v>0</v>
+      <c r="AB137" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC137" s="14"/>
-      <c r="AD137" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD137" s="13"/>
       <c r="AE137" s="14"/>
     </row>
     <row r="138" spans="1:31" ht="24.75" customHeight="1">
@@ -13788,8 +13540,8 @@
       <c r="V138" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W138" s="13" t="b">
-        <v>1</v>
+      <c r="W138" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X138" s="14"/>
       <c r="Y138" s="15">
@@ -13797,13 +13549,11 @@
       </c>
       <c r="Z138" s="14"/>
       <c r="AA138" s="14"/>
-      <c r="AB138" s="13" t="b">
-        <v>0</v>
+      <c r="AB138" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC138" s="14"/>
-      <c r="AD138" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD138" s="13"/>
       <c r="AE138" s="14"/>
     </row>
     <row r="139" spans="1:31" ht="24.75" customHeight="1">
@@ -13871,8 +13621,8 @@
       <c r="V139" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W139" s="13" t="b">
-        <v>1</v>
+      <c r="W139" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X139" s="14"/>
       <c r="Y139" s="15">
@@ -13880,13 +13630,11 @@
       </c>
       <c r="Z139" s="14"/>
       <c r="AA139" s="14"/>
-      <c r="AB139" s="13" t="b">
-        <v>0</v>
+      <c r="AB139" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC139" s="14"/>
-      <c r="AD139" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD139" s="13"/>
       <c r="AE139" s="14"/>
     </row>
     <row r="140" spans="1:31" ht="24.75" customHeight="1">
@@ -13954,8 +13702,8 @@
       <c r="V140" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W140" s="13" t="b">
-        <v>1</v>
+      <c r="W140" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X140" s="14"/>
       <c r="Y140" s="15">
@@ -13963,13 +13711,11 @@
       </c>
       <c r="Z140" s="14"/>
       <c r="AA140" s="14"/>
-      <c r="AB140" s="13" t="b">
-        <v>0</v>
+      <c r="AB140" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC140" s="14"/>
-      <c r="AD140" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD140" s="13"/>
       <c r="AE140" s="14"/>
     </row>
     <row r="141" spans="1:31" ht="24.75" customHeight="1">
@@ -14037,8 +13783,8 @@
       <c r="V141" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W141" s="13" t="b">
-        <v>1</v>
+      <c r="W141" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X141" s="14"/>
       <c r="Y141" s="15">
@@ -14046,13 +13792,11 @@
       </c>
       <c r="Z141" s="14"/>
       <c r="AA141" s="14"/>
-      <c r="AB141" s="13" t="b">
-        <v>0</v>
+      <c r="AB141" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC141" s="14"/>
-      <c r="AD141" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD141" s="13"/>
       <c r="AE141" s="14"/>
     </row>
     <row r="142" spans="1:31" ht="24.75" customHeight="1">
@@ -14118,8 +13862,8 @@
       <c r="V142" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W142" s="13" t="b">
-        <v>1</v>
+      <c r="W142" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X142" s="14"/>
       <c r="Y142" s="15">
@@ -14127,13 +13871,11 @@
       </c>
       <c r="Z142" s="14"/>
       <c r="AA142" s="14"/>
-      <c r="AB142" s="13" t="b">
-        <v>0</v>
+      <c r="AB142" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC142" s="14"/>
-      <c r="AD142" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD142" s="13"/>
       <c r="AE142" s="14"/>
     </row>
     <row r="143" spans="1:31" ht="24.75" customHeight="1">
@@ -14201,8 +13943,8 @@
       <c r="V143" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W143" s="13" t="b">
-        <v>1</v>
+      <c r="W143" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X143" s="14"/>
       <c r="Y143" s="15">
@@ -14210,13 +13952,11 @@
       </c>
       <c r="Z143" s="14"/>
       <c r="AA143" s="14"/>
-      <c r="AB143" s="13" t="b">
-        <v>0</v>
+      <c r="AB143" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC143" s="14"/>
-      <c r="AD143" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD143" s="13"/>
       <c r="AE143" s="14"/>
     </row>
     <row r="144" spans="1:31" ht="24.75" customHeight="1">
@@ -14284,8 +14024,8 @@
       <c r="V144" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W144" s="13" t="b">
-        <v>1</v>
+      <c r="W144" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X144" s="14"/>
       <c r="Y144" s="15">
@@ -14293,13 +14033,11 @@
       </c>
       <c r="Z144" s="14"/>
       <c r="AA144" s="14"/>
-      <c r="AB144" s="13" t="b">
-        <v>0</v>
+      <c r="AB144" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC144" s="14"/>
-      <c r="AD144" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD144" s="13"/>
       <c r="AE144" s="14"/>
     </row>
     <row r="145" spans="1:31" ht="24.75" customHeight="1">
@@ -14367,8 +14105,8 @@
       <c r="V145" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W145" s="13" t="b">
-        <v>1</v>
+      <c r="W145" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X145" s="14"/>
       <c r="Y145" s="15">
@@ -14376,13 +14114,11 @@
       </c>
       <c r="Z145" s="14"/>
       <c r="AA145" s="14"/>
-      <c r="AB145" s="13" t="b">
-        <v>0</v>
+      <c r="AB145" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC145" s="14"/>
-      <c r="AD145" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD145" s="13"/>
       <c r="AE145" s="14"/>
     </row>
     <row r="146" spans="1:31" ht="24.75" customHeight="1">
@@ -14450,8 +14186,8 @@
       <c r="V146" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W146" s="13" t="b">
-        <v>1</v>
+      <c r="W146" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X146" s="14"/>
       <c r="Y146" s="15">
@@ -14459,13 +14195,11 @@
       </c>
       <c r="Z146" s="14"/>
       <c r="AA146" s="14"/>
-      <c r="AB146" s="13" t="b">
-        <v>0</v>
+      <c r="AB146" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC146" s="14"/>
-      <c r="AD146" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD146" s="13"/>
       <c r="AE146" s="14"/>
     </row>
     <row r="147" spans="1:31" ht="24.75" customHeight="1">
@@ -14533,8 +14267,8 @@
       <c r="V147" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W147" s="13" t="b">
-        <v>1</v>
+      <c r="W147" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X147" s="14"/>
       <c r="Y147" s="15">
@@ -14542,13 +14276,11 @@
       </c>
       <c r="Z147" s="14"/>
       <c r="AA147" s="14"/>
-      <c r="AB147" s="13" t="b">
-        <v>0</v>
+      <c r="AB147" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC147" s="14"/>
-      <c r="AD147" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD147" s="13"/>
       <c r="AE147" s="14"/>
     </row>
     <row r="148" spans="1:31" ht="24.75" customHeight="1">
@@ -14616,8 +14348,8 @@
       <c r="V148" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W148" s="13" t="b">
-        <v>1</v>
+      <c r="W148" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X148" s="14"/>
       <c r="Y148" s="15">
@@ -14625,13 +14357,11 @@
       </c>
       <c r="Z148" s="14"/>
       <c r="AA148" s="14"/>
-      <c r="AB148" s="13" t="b">
-        <v>0</v>
+      <c r="AB148" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC148" s="14"/>
-      <c r="AD148" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD148" s="13"/>
       <c r="AE148" s="14"/>
     </row>
     <row r="149" spans="1:31" ht="24.75" customHeight="1">
@@ -14697,8 +14427,8 @@
       <c r="V149" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W149" s="13" t="b">
-        <v>1</v>
+      <c r="W149" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X149" s="14"/>
       <c r="Y149" s="15">
@@ -14706,8 +14436,8 @@
       </c>
       <c r="Z149" s="14"/>
       <c r="AA149" s="14"/>
-      <c r="AB149" s="13" t="b">
-        <v>0</v>
+      <c r="AB149" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC149" s="14"/>
       <c r="AD149" s="14"/>
@@ -14778,8 +14508,8 @@
       <c r="V150" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W150" s="13" t="b">
-        <v>1</v>
+      <c r="W150" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X150" s="14"/>
       <c r="Y150" s="15">
@@ -14787,13 +14517,11 @@
       </c>
       <c r="Z150" s="14"/>
       <c r="AA150" s="14"/>
-      <c r="AB150" s="13" t="b">
-        <v>0</v>
+      <c r="AB150" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC150" s="14"/>
-      <c r="AD150" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD150" s="13"/>
       <c r="AE150" s="14"/>
     </row>
     <row r="151" spans="1:31" ht="24.75" customHeight="1">
@@ -14861,8 +14589,8 @@
       <c r="V151" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W151" s="13" t="b">
-        <v>1</v>
+      <c r="W151" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X151" s="14"/>
       <c r="Y151" s="15">
@@ -14870,13 +14598,11 @@
       </c>
       <c r="Z151" s="14"/>
       <c r="AA151" s="14"/>
-      <c r="AB151" s="13" t="b">
-        <v>0</v>
+      <c r="AB151" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC151" s="14"/>
-      <c r="AD151" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD151" s="13"/>
       <c r="AE151" s="14"/>
     </row>
     <row r="152" spans="1:31" ht="24.75" customHeight="1">
@@ -14944,8 +14670,8 @@
       <c r="V152" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W152" s="13" t="b">
-        <v>1</v>
+      <c r="W152" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X152" s="14"/>
       <c r="Y152" s="15">
@@ -14953,13 +14679,11 @@
       </c>
       <c r="Z152" s="14"/>
       <c r="AA152" s="14"/>
-      <c r="AB152" s="13" t="b">
-        <v>0</v>
+      <c r="AB152" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC152" s="14"/>
-      <c r="AD152" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD152" s="13"/>
       <c r="AE152" s="14"/>
     </row>
     <row r="153" spans="1:31" ht="24.75" customHeight="1">
@@ -15027,8 +14751,8 @@
       <c r="V153" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W153" s="13" t="b">
-        <v>1</v>
+      <c r="W153" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X153" s="14"/>
       <c r="Y153" s="15">
@@ -15036,13 +14760,11 @@
       </c>
       <c r="Z153" s="14"/>
       <c r="AA153" s="14"/>
-      <c r="AB153" s="13" t="b">
-        <v>0</v>
+      <c r="AB153" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC153" s="14"/>
-      <c r="AD153" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD153" s="13"/>
       <c r="AE153" s="14"/>
     </row>
     <row r="154" spans="1:31" ht="24.75" customHeight="1">
@@ -15110,8 +14832,8 @@
       <c r="V154" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W154" s="13" t="b">
-        <v>1</v>
+      <c r="W154" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X154" s="14"/>
       <c r="Y154" s="15">
@@ -15119,13 +14841,11 @@
       </c>
       <c r="Z154" s="14"/>
       <c r="AA154" s="14"/>
-      <c r="AB154" s="13" t="b">
-        <v>0</v>
+      <c r="AB154" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC154" s="14"/>
-      <c r="AD154" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD154" s="13"/>
       <c r="AE154" s="14"/>
     </row>
     <row r="155" spans="1:31" ht="24.75" customHeight="1">
@@ -15193,8 +14913,8 @@
       <c r="V155" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W155" s="13" t="b">
-        <v>1</v>
+      <c r="W155" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X155" s="14"/>
       <c r="Y155" s="15">
@@ -15202,13 +14922,11 @@
       </c>
       <c r="Z155" s="14"/>
       <c r="AA155" s="14"/>
-      <c r="AB155" s="13" t="b">
-        <v>0</v>
+      <c r="AB155" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC155" s="14"/>
-      <c r="AD155" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD155" s="13"/>
       <c r="AE155" s="14"/>
     </row>
     <row r="156" spans="1:31" ht="24.75" customHeight="1">
@@ -15276,8 +14994,8 @@
       <c r="V156" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W156" s="13" t="b">
-        <v>1</v>
+      <c r="W156" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X156" s="14"/>
       <c r="Y156" s="15">
@@ -15285,13 +15003,11 @@
       </c>
       <c r="Z156" s="14"/>
       <c r="AA156" s="14"/>
-      <c r="AB156" s="13" t="b">
-        <v>0</v>
+      <c r="AB156" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC156" s="14"/>
-      <c r="AD156" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD156" s="13"/>
       <c r="AE156" s="14"/>
     </row>
     <row r="157" spans="1:31" ht="24.75" customHeight="1">
@@ -15359,8 +15075,8 @@
       <c r="V157" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W157" s="13" t="b">
-        <v>1</v>
+      <c r="W157" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X157" s="14"/>
       <c r="Y157" s="15">
@@ -15368,13 +15084,11 @@
       </c>
       <c r="Z157" s="14"/>
       <c r="AA157" s="14"/>
-      <c r="AB157" s="13" t="b">
-        <v>0</v>
+      <c r="AB157" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC157" s="14"/>
-      <c r="AD157" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD157" s="13"/>
       <c r="AE157" s="14"/>
     </row>
     <row r="158" spans="1:31" ht="24.75" customHeight="1">
@@ -15442,8 +15156,8 @@
       <c r="V158" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W158" s="13" t="b">
-        <v>1</v>
+      <c r="W158" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X158" s="14"/>
       <c r="Y158" s="15">
@@ -15451,13 +15165,11 @@
       </c>
       <c r="Z158" s="14"/>
       <c r="AA158" s="14"/>
-      <c r="AB158" s="13" t="b">
-        <v>0</v>
+      <c r="AB158" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC158" s="14"/>
-      <c r="AD158" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD158" s="13"/>
       <c r="AE158" s="14"/>
     </row>
     <row r="159" spans="1:31" ht="24.75" customHeight="1">
@@ -15525,8 +15237,8 @@
       <c r="V159" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W159" s="13" t="b">
-        <v>1</v>
+      <c r="W159" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X159" s="14"/>
       <c r="Y159" s="15">
@@ -15534,13 +15246,11 @@
       </c>
       <c r="Z159" s="14"/>
       <c r="AA159" s="14"/>
-      <c r="AB159" s="13" t="b">
-        <v>0</v>
+      <c r="AB159" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC159" s="14"/>
-      <c r="AD159" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD159" s="13"/>
       <c r="AE159" s="14"/>
     </row>
     <row r="160" spans="1:31" ht="24.75" customHeight="1">
@@ -15608,8 +15318,8 @@
       <c r="V160" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W160" s="13" t="b">
-        <v>1</v>
+      <c r="W160" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="X160" s="14"/>
       <c r="Y160" s="15">
@@ -15617,13 +15327,11 @@
       </c>
       <c r="Z160" s="14"/>
       <c r="AA160" s="14"/>
-      <c r="AB160" s="13" t="b">
-        <v>0</v>
+      <c r="AB160" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="AC160" s="14"/>
-      <c r="AD160" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD160" s="13"/>
       <c r="AE160" s="14"/>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93F49BF-3090-4595-9A66-3D5B4EABFB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F792A7-6175-42E0-8F05-C03E5BBEE48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2DB565-78FF-4155-97F0-5EBCB5259144}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="615">
   <si>
     <t>id</t>
   </si>
@@ -1881,6 +1881,9 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>eff_dtimes</t>
   </si>
 </sst>
 </file>
@@ -2367,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92A3FA-E478-4F31-8A14-E51848C96E36}">
   <dimension ref="A1:AE159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -2400,7 +2403,7 @@
     <col min="27" max="27" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24.75" customHeight="1">
@@ -2491,7 +2494,9 @@
       <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="4" t="s">
+        <v>614</v>
+      </c>
       <c r="AE1" s="8"/>
     </row>
     <row r="2" spans="1:31" ht="24.75" customHeight="1">
@@ -2578,7 +2583,9 @@
         <v>611</v>
       </c>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="13"/>
+      <c r="AD2" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" customHeight="1">
@@ -2665,7 +2672,9 @@
         <v>611</v>
       </c>
       <c r="AC3" s="14"/>
-      <c r="AD3" s="13"/>
+      <c r="AD3" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:31" ht="24.75" customHeight="1">
@@ -2752,7 +2761,9 @@
         <v>611</v>
       </c>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="13"/>
+      <c r="AD4" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE4" s="14"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" customHeight="1">
@@ -2839,7 +2850,9 @@
         <v>611</v>
       </c>
       <c r="AC5" s="14"/>
-      <c r="AD5" s="13"/>
+      <c r="AD5" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:31" ht="24.75" customHeight="1">
@@ -2926,7 +2939,9 @@
         <v>611</v>
       </c>
       <c r="AC6" s="14"/>
-      <c r="AD6" s="13"/>
+      <c r="AD6" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:31" ht="24.75" customHeight="1">
@@ -3013,7 +3028,9 @@
         <v>611</v>
       </c>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="13"/>
+      <c r="AD7" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:31" ht="24.75" customHeight="1">
@@ -3100,7 +3117,9 @@
         <v>611</v>
       </c>
       <c r="AC8" s="14"/>
-      <c r="AD8" s="13"/>
+      <c r="AD8" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE8" s="14"/>
     </row>
     <row r="9" spans="1:31" ht="24.75" customHeight="1">
@@ -3187,7 +3206,9 @@
         <v>611</v>
       </c>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="13"/>
+      <c r="AD9" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE9" s="14"/>
     </row>
     <row r="10" spans="1:31" ht="24.75" customHeight="1">
@@ -3274,7 +3295,9 @@
         <v>611</v>
       </c>
       <c r="AC10" s="14"/>
-      <c r="AD10" s="13"/>
+      <c r="AD10" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE10" s="14"/>
     </row>
     <row r="11" spans="1:31" ht="24.75" customHeight="1">
@@ -3361,7 +3384,9 @@
         <v>611</v>
       </c>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="13"/>
+      <c r="AD11" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE11" s="14"/>
     </row>
     <row r="12" spans="1:31" ht="24.75" customHeight="1">
@@ -3448,7 +3473,9 @@
         <v>611</v>
       </c>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="13"/>
+      <c r="AD12" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE12" s="14"/>
     </row>
     <row r="13" spans="1:31" ht="24.75" customHeight="1">
@@ -3535,7 +3562,9 @@
         <v>611</v>
       </c>
       <c r="AC13" s="14"/>
-      <c r="AD13" s="13"/>
+      <c r="AD13" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE13" s="14"/>
     </row>
     <row r="14" spans="1:31" ht="24.75" customHeight="1">
@@ -3622,7 +3651,9 @@
         <v>611</v>
       </c>
       <c r="AC14" s="14"/>
-      <c r="AD14" s="13"/>
+      <c r="AD14" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE14" s="14"/>
     </row>
     <row r="15" spans="1:31" ht="24.75" customHeight="1">
@@ -3709,7 +3740,9 @@
         <v>611</v>
       </c>
       <c r="AC15" s="14"/>
-      <c r="AD15" s="13"/>
+      <c r="AD15" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE15" s="14"/>
     </row>
     <row r="16" spans="1:31" ht="24.75" customHeight="1">
@@ -3796,7 +3829,9 @@
         <v>611</v>
       </c>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="13"/>
+      <c r="AD16" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE16" s="14"/>
     </row>
     <row r="17" spans="1:31" ht="24.75" customHeight="1">
@@ -3883,7 +3918,9 @@
         <v>611</v>
       </c>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="13"/>
+      <c r="AD17" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE17" s="14"/>
     </row>
     <row r="18" spans="1:31" ht="24.75" customHeight="1">
@@ -3970,7 +4007,9 @@
         <v>611</v>
       </c>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="13"/>
+      <c r="AD18" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE18" s="14"/>
     </row>
     <row r="19" spans="1:31" ht="24.75" customHeight="1">
@@ -4057,7 +4096,9 @@
         <v>611</v>
       </c>
       <c r="AC19" s="14"/>
-      <c r="AD19" s="13"/>
+      <c r="AD19" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE19" s="14"/>
     </row>
     <row r="20" spans="1:31" ht="24.75" customHeight="1">
@@ -4144,7 +4185,9 @@
         <v>611</v>
       </c>
       <c r="AC20" s="14"/>
-      <c r="AD20" s="13"/>
+      <c r="AD20" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE20" s="14"/>
     </row>
     <row r="21" spans="1:31" ht="24.75" customHeight="1">
@@ -4231,7 +4274,9 @@
         <v>611</v>
       </c>
       <c r="AC21" s="14"/>
-      <c r="AD21" s="13"/>
+      <c r="AD21" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE21" s="14"/>
     </row>
     <row r="22" spans="1:31" ht="24.75" customHeight="1">
@@ -4318,7 +4363,9 @@
         <v>611</v>
       </c>
       <c r="AC22" s="14"/>
-      <c r="AD22" s="13"/>
+      <c r="AD22" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE22" s="14"/>
     </row>
     <row r="23" spans="1:31" ht="24.75" customHeight="1">
@@ -4405,7 +4452,9 @@
         <v>611</v>
       </c>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="13"/>
+      <c r="AD23" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE23" s="14"/>
     </row>
     <row r="24" spans="1:31" ht="24.75" customHeight="1">
@@ -4492,7 +4541,9 @@
         <v>611</v>
       </c>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="13"/>
+      <c r="AD24" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE24" s="14"/>
     </row>
     <row r="25" spans="1:31" ht="24.75" customHeight="1">
@@ -4579,7 +4630,9 @@
         <v>611</v>
       </c>
       <c r="AC25" s="14"/>
-      <c r="AD25" s="13"/>
+      <c r="AD25" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE25" s="14"/>
     </row>
     <row r="26" spans="1:31" ht="24.75" customHeight="1">
@@ -4666,7 +4719,9 @@
         <v>611</v>
       </c>
       <c r="AC26" s="14"/>
-      <c r="AD26" s="13"/>
+      <c r="AD26" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE26" s="14"/>
     </row>
     <row r="27" spans="1:31" ht="24.75" customHeight="1">
@@ -4753,7 +4808,9 @@
         <v>611</v>
       </c>
       <c r="AC27" s="14"/>
-      <c r="AD27" s="13"/>
+      <c r="AD27" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE27" s="14"/>
     </row>
     <row r="28" spans="1:31" ht="24.75" customHeight="1">
@@ -4840,7 +4897,9 @@
         <v>611</v>
       </c>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="13"/>
+      <c r="AD28" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE28" s="14"/>
     </row>
     <row r="29" spans="1:31" ht="24.75" customHeight="1">
@@ -4927,7 +4986,9 @@
         <v>611</v>
       </c>
       <c r="AC29" s="14"/>
-      <c r="AD29" s="13"/>
+      <c r="AD29" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE29" s="14"/>
     </row>
     <row r="30" spans="1:31" ht="24.75" customHeight="1">
@@ -5014,7 +5075,9 @@
         <v>611</v>
       </c>
       <c r="AC30" s="14"/>
-      <c r="AD30" s="13"/>
+      <c r="AD30" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE30" s="14"/>
     </row>
     <row r="31" spans="1:31" ht="24.75" customHeight="1">
@@ -5101,7 +5164,9 @@
         <v>611</v>
       </c>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="13"/>
+      <c r="AD31" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE31" s="14"/>
     </row>
     <row r="32" spans="1:31" ht="24.75" customHeight="1">
@@ -5188,7 +5253,9 @@
         <v>611</v>
       </c>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="13"/>
+      <c r="AD32" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE32" s="14"/>
     </row>
     <row r="33" spans="1:31" ht="24.75" customHeight="1">
@@ -5275,7 +5342,9 @@
         <v>611</v>
       </c>
       <c r="AC33" s="14"/>
-      <c r="AD33" s="13"/>
+      <c r="AD33" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE33" s="14"/>
     </row>
     <row r="34" spans="1:31" ht="24.75" customHeight="1">
@@ -5362,7 +5431,9 @@
         <v>611</v>
       </c>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="13"/>
+      <c r="AD34" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="1:31" ht="24.75" customHeight="1">
@@ -5447,7 +5518,9 @@
         <v>611</v>
       </c>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="13"/>
+      <c r="AD35" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE35" s="14"/>
     </row>
     <row r="36" spans="1:31" ht="24.75" customHeight="1">
@@ -5534,7 +5607,9 @@
         <v>611</v>
       </c>
       <c r="AC36" s="14"/>
-      <c r="AD36" s="13"/>
+      <c r="AD36" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE36" s="14"/>
     </row>
     <row r="37" spans="1:31" ht="24.75" customHeight="1">
@@ -5621,7 +5696,9 @@
         <v>611</v>
       </c>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="13"/>
+      <c r="AD37" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE37" s="14"/>
     </row>
     <row r="38" spans="1:31" ht="24.75" customHeight="1">
@@ -5708,7 +5785,9 @@
         <v>611</v>
       </c>
       <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
+      <c r="AD38" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE38" s="14"/>
     </row>
     <row r="39" spans="1:31" ht="24.75" customHeight="1">
@@ -5795,7 +5874,9 @@
         <v>611</v>
       </c>
       <c r="AC39" s="14"/>
-      <c r="AD39" s="13"/>
+      <c r="AD39" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE39" s="14"/>
     </row>
     <row r="40" spans="1:31" ht="24.75" customHeight="1">
@@ -5882,7 +5963,9 @@
         <v>611</v>
       </c>
       <c r="AC40" s="14"/>
-      <c r="AD40" s="13"/>
+      <c r="AD40" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE40" s="14"/>
     </row>
     <row r="41" spans="1:31" ht="24.75" customHeight="1">
@@ -5969,7 +6052,9 @@
         <v>611</v>
       </c>
       <c r="AC41" s="14"/>
-      <c r="AD41" s="13"/>
+      <c r="AD41" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE41" s="14"/>
     </row>
     <row r="42" spans="1:31" ht="24.75" customHeight="1">
@@ -6056,7 +6141,9 @@
         <v>611</v>
       </c>
       <c r="AC42" s="14"/>
-      <c r="AD42" s="13"/>
+      <c r="AD42" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE42" s="14"/>
     </row>
     <row r="43" spans="1:31" ht="24.75" customHeight="1">
@@ -6143,7 +6230,9 @@
         <v>611</v>
       </c>
       <c r="AC43" s="14"/>
-      <c r="AD43" s="13"/>
+      <c r="AD43" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE43" s="14"/>
     </row>
     <row r="44" spans="1:31" ht="24.75" customHeight="1">
@@ -6230,7 +6319,9 @@
         <v>611</v>
       </c>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="13"/>
+      <c r="AD44" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE44" s="14"/>
     </row>
     <row r="45" spans="1:31" ht="24.75" customHeight="1">
@@ -6317,7 +6408,9 @@
         <v>611</v>
       </c>
       <c r="AC45" s="14"/>
-      <c r="AD45" s="13"/>
+      <c r="AD45" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE45" s="14"/>
     </row>
     <row r="46" spans="1:31" ht="24.75" customHeight="1">
@@ -6404,7 +6497,9 @@
         <v>611</v>
       </c>
       <c r="AC46" s="14"/>
-      <c r="AD46" s="13"/>
+      <c r="AD46" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE46" s="14"/>
     </row>
     <row r="47" spans="1:31" ht="24.75" customHeight="1">
@@ -6491,7 +6586,9 @@
         <v>611</v>
       </c>
       <c r="AC47" s="14"/>
-      <c r="AD47" s="13"/>
+      <c r="AD47" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE47" s="14"/>
     </row>
     <row r="48" spans="1:31" ht="24.75" customHeight="1">
@@ -6578,7 +6675,9 @@
         <v>611</v>
       </c>
       <c r="AC48" s="14"/>
-      <c r="AD48" s="13"/>
+      <c r="AD48" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE48" s="14"/>
     </row>
     <row r="49" spans="1:31" ht="24.75" customHeight="1">
@@ -6665,7 +6764,9 @@
         <v>611</v>
       </c>
       <c r="AC49" s="14"/>
-      <c r="AD49" s="13"/>
+      <c r="AD49" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE49" s="14"/>
     </row>
     <row r="50" spans="1:31" ht="24.75" customHeight="1">
@@ -6752,7 +6853,9 @@
         <v>611</v>
       </c>
       <c r="AC50" s="14"/>
-      <c r="AD50" s="13"/>
+      <c r="AD50" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE50" s="14"/>
     </row>
     <row r="51" spans="1:31" ht="24.75" customHeight="1">
@@ -6839,7 +6942,9 @@
         <v>611</v>
       </c>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="13"/>
+      <c r="AD51" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE51" s="14"/>
     </row>
     <row r="52" spans="1:31" ht="24.75" customHeight="1">
@@ -6926,7 +7031,9 @@
         <v>611</v>
       </c>
       <c r="AC52" s="14"/>
-      <c r="AD52" s="13"/>
+      <c r="AD52" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE52" s="14"/>
     </row>
     <row r="53" spans="1:31" ht="24.75" customHeight="1">
@@ -7013,7 +7120,9 @@
         <v>611</v>
       </c>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="13"/>
+      <c r="AD53" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE53" s="14"/>
     </row>
     <row r="54" spans="1:31" ht="24.75" customHeight="1">
@@ -7100,7 +7209,9 @@
         <v>611</v>
       </c>
       <c r="AC54" s="14"/>
-      <c r="AD54" s="13"/>
+      <c r="AD54" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE54" s="14"/>
     </row>
     <row r="55" spans="1:31" ht="24.75" customHeight="1">
@@ -7187,7 +7298,9 @@
         <v>611</v>
       </c>
       <c r="AC55" s="14"/>
-      <c r="AD55" s="13"/>
+      <c r="AD55" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE55" s="14"/>
     </row>
     <row r="56" spans="1:31" ht="24.75" customHeight="1">
@@ -7274,7 +7387,9 @@
         <v>611</v>
       </c>
       <c r="AC56" s="14"/>
-      <c r="AD56" s="13"/>
+      <c r="AD56" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE56" s="14"/>
     </row>
     <row r="57" spans="1:31" ht="24.75" customHeight="1">
@@ -7361,7 +7476,9 @@
         <v>611</v>
       </c>
       <c r="AC57" s="14"/>
-      <c r="AD57" s="13"/>
+      <c r="AD57" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE57" s="14"/>
     </row>
     <row r="58" spans="1:31" ht="24.75" customHeight="1">
@@ -7448,7 +7565,9 @@
         <v>611</v>
       </c>
       <c r="AC58" s="14"/>
-      <c r="AD58" s="13"/>
+      <c r="AD58" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE58" s="14"/>
     </row>
     <row r="59" spans="1:31" ht="24.75" customHeight="1">
@@ -7535,7 +7654,9 @@
         <v>611</v>
       </c>
       <c r="AC59" s="14"/>
-      <c r="AD59" s="13"/>
+      <c r="AD59" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE59" s="14"/>
     </row>
     <row r="60" spans="1:31" ht="24.75" customHeight="1">
@@ -7622,7 +7743,9 @@
         <v>611</v>
       </c>
       <c r="AC60" s="14"/>
-      <c r="AD60" s="13"/>
+      <c r="AD60" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE60" s="14"/>
     </row>
     <row r="61" spans="1:31" ht="24.75" customHeight="1">
@@ -7709,7 +7832,9 @@
         <v>611</v>
       </c>
       <c r="AC61" s="14"/>
-      <c r="AD61" s="13"/>
+      <c r="AD61" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE61" s="14"/>
     </row>
     <row r="62" spans="1:31" ht="24.75" customHeight="1">
@@ -7796,7 +7921,9 @@
         <v>611</v>
       </c>
       <c r="AC62" s="14"/>
-      <c r="AD62" s="13"/>
+      <c r="AD62" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE62" s="14"/>
     </row>
     <row r="63" spans="1:31" ht="24.75" customHeight="1">
@@ -7883,7 +8010,9 @@
         <v>611</v>
       </c>
       <c r="AC63" s="14"/>
-      <c r="AD63" s="13"/>
+      <c r="AD63" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE63" s="14"/>
     </row>
     <row r="64" spans="1:31" ht="24.75" customHeight="1">
@@ -7970,7 +8099,9 @@
         <v>611</v>
       </c>
       <c r="AC64" s="14"/>
-      <c r="AD64" s="13"/>
+      <c r="AD64" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE64" s="14"/>
     </row>
     <row r="65" spans="1:31" ht="24.75" customHeight="1">
@@ -8057,7 +8188,9 @@
         <v>611</v>
       </c>
       <c r="AC65" s="14"/>
-      <c r="AD65" s="13"/>
+      <c r="AD65" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE65" s="14"/>
     </row>
     <row r="66" spans="1:31" ht="24.75" customHeight="1">
@@ -8144,7 +8277,9 @@
         <v>611</v>
       </c>
       <c r="AC66" s="14"/>
-      <c r="AD66" s="13"/>
+      <c r="AD66" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE66" s="14"/>
     </row>
     <row r="67" spans="1:31" ht="24.75" customHeight="1">
@@ -8229,7 +8364,9 @@
         <v>611</v>
       </c>
       <c r="AC67" s="14"/>
-      <c r="AD67" s="13"/>
+      <c r="AD67" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE67" s="14"/>
     </row>
     <row r="68" spans="1:31" ht="24.75" customHeight="1">
@@ -8316,7 +8453,9 @@
         <v>611</v>
       </c>
       <c r="AC68" s="14"/>
-      <c r="AD68" s="13"/>
+      <c r="AD68" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE68" s="14"/>
     </row>
     <row r="69" spans="1:31" ht="24.75" customHeight="1">
@@ -8403,7 +8542,9 @@
         <v>611</v>
       </c>
       <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
+      <c r="AD69" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE69" s="14"/>
     </row>
     <row r="70" spans="1:31" ht="24.75" customHeight="1">
@@ -8490,7 +8631,9 @@
         <v>611</v>
       </c>
       <c r="AC70" s="14"/>
-      <c r="AD70" s="13"/>
+      <c r="AD70" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE70" s="14"/>
     </row>
     <row r="71" spans="1:31" ht="24.75" customHeight="1">
@@ -8577,7 +8720,9 @@
         <v>611</v>
       </c>
       <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
+      <c r="AD71" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE71" s="14"/>
     </row>
     <row r="72" spans="1:31" ht="24.75" customHeight="1">
@@ -8664,7 +8809,9 @@
         <v>611</v>
       </c>
       <c r="AC72" s="14"/>
-      <c r="AD72" s="13"/>
+      <c r="AD72" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE72" s="14"/>
     </row>
     <row r="73" spans="1:31" ht="24.75" customHeight="1">
@@ -8751,7 +8898,9 @@
         <v>611</v>
       </c>
       <c r="AC73" s="14"/>
-      <c r="AD73" s="13"/>
+      <c r="AD73" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE73" s="14"/>
     </row>
     <row r="74" spans="1:31" ht="24.75" customHeight="1">
@@ -8838,7 +8987,9 @@
         <v>611</v>
       </c>
       <c r="AC74" s="14"/>
-      <c r="AD74" s="13"/>
+      <c r="AD74" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE74" s="14"/>
     </row>
     <row r="75" spans="1:31" ht="24.75" customHeight="1">
@@ -8925,7 +9076,9 @@
         <v>611</v>
       </c>
       <c r="AC75" s="14"/>
-      <c r="AD75" s="13"/>
+      <c r="AD75" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE75" s="14"/>
     </row>
     <row r="76" spans="1:31" ht="24.75" customHeight="1">
@@ -9012,7 +9165,9 @@
         <v>611</v>
       </c>
       <c r="AC76" s="14"/>
-      <c r="AD76" s="13"/>
+      <c r="AD76" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE76" s="14"/>
     </row>
     <row r="77" spans="1:31" ht="24.75" customHeight="1">
@@ -9099,7 +9254,9 @@
         <v>611</v>
       </c>
       <c r="AC77" s="14"/>
-      <c r="AD77" s="13"/>
+      <c r="AD77" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE77" s="14"/>
     </row>
     <row r="78" spans="1:31" ht="24.75" customHeight="1">
@@ -9186,7 +9343,9 @@
         <v>611</v>
       </c>
       <c r="AC78" s="14"/>
-      <c r="AD78" s="13"/>
+      <c r="AD78" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE78" s="14"/>
     </row>
     <row r="79" spans="1:31" ht="24.75" customHeight="1">
@@ -9273,7 +9432,9 @@
         <v>611</v>
       </c>
       <c r="AC79" s="14"/>
-      <c r="AD79" s="13"/>
+      <c r="AD79" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE79" s="14"/>
     </row>
     <row r="80" spans="1:31" ht="24.75" customHeight="1">
@@ -9360,7 +9521,9 @@
         <v>611</v>
       </c>
       <c r="AC80" s="14"/>
-      <c r="AD80" s="13"/>
+      <c r="AD80" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE80" s="14"/>
     </row>
     <row r="81" spans="1:31" ht="24.75" customHeight="1">
@@ -9447,7 +9610,9 @@
         <v>611</v>
       </c>
       <c r="AC81" s="14"/>
-      <c r="AD81" s="13"/>
+      <c r="AD81" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE81" s="14"/>
     </row>
     <row r="82" spans="1:31" ht="24.75" customHeight="1">
@@ -9534,7 +9699,9 @@
         <v>611</v>
       </c>
       <c r="AC82" s="14"/>
-      <c r="AD82" s="13"/>
+      <c r="AD82" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE82" s="14"/>
     </row>
     <row r="83" spans="1:31" ht="24.75" customHeight="1">
@@ -9621,7 +9788,9 @@
         <v>611</v>
       </c>
       <c r="AC83" s="14"/>
-      <c r="AD83" s="13"/>
+      <c r="AD83" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE83" s="14"/>
     </row>
     <row r="84" spans="1:31" ht="24.75" customHeight="1">
@@ -9708,7 +9877,9 @@
         <v>611</v>
       </c>
       <c r="AC84" s="14"/>
-      <c r="AD84" s="13"/>
+      <c r="AD84" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE84" s="14"/>
     </row>
     <row r="85" spans="1:31" ht="24.75" customHeight="1">
@@ -9795,7 +9966,9 @@
         <v>611</v>
       </c>
       <c r="AC85" s="14"/>
-      <c r="AD85" s="13"/>
+      <c r="AD85" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE85" s="14"/>
     </row>
     <row r="86" spans="1:31" ht="24.75" customHeight="1">
@@ -9882,7 +10055,9 @@
         <v>611</v>
       </c>
       <c r="AC86" s="14"/>
-      <c r="AD86" s="13"/>
+      <c r="AD86" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE86" s="14"/>
     </row>
     <row r="87" spans="1:31" ht="24.75" customHeight="1">
@@ -9969,7 +10144,9 @@
         <v>611</v>
       </c>
       <c r="AC87" s="14"/>
-      <c r="AD87" s="13"/>
+      <c r="AD87" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE87" s="14"/>
     </row>
     <row r="88" spans="1:31" ht="24.75" customHeight="1">
@@ -10056,7 +10233,9 @@
         <v>611</v>
       </c>
       <c r="AC88" s="14"/>
-      <c r="AD88" s="13"/>
+      <c r="AD88" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE88" s="14"/>
     </row>
     <row r="89" spans="1:31" ht="24.75" customHeight="1">
@@ -10143,7 +10322,9 @@
         <v>611</v>
       </c>
       <c r="AC89" s="14"/>
-      <c r="AD89" s="13"/>
+      <c r="AD89" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE89" s="14"/>
     </row>
     <row r="90" spans="1:31" ht="24.75" customHeight="1">
@@ -10230,7 +10411,9 @@
         <v>611</v>
       </c>
       <c r="AC90" s="14"/>
-      <c r="AD90" s="13"/>
+      <c r="AD90" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE90" s="14"/>
     </row>
     <row r="91" spans="1:31" ht="24.75" customHeight="1">
@@ -10317,7 +10500,9 @@
         <v>611</v>
       </c>
       <c r="AC91" s="14"/>
-      <c r="AD91" s="13"/>
+      <c r="AD91" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE91" s="14"/>
     </row>
     <row r="92" spans="1:31" ht="24.75" customHeight="1">
@@ -10404,7 +10589,9 @@
         <v>611</v>
       </c>
       <c r="AC92" s="14"/>
-      <c r="AD92" s="13"/>
+      <c r="AD92" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE92" s="14"/>
     </row>
     <row r="93" spans="1:31" ht="24.75" customHeight="1">
@@ -10491,7 +10678,9 @@
         <v>611</v>
       </c>
       <c r="AC93" s="14"/>
-      <c r="AD93" s="13"/>
+      <c r="AD93" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE93" s="14"/>
     </row>
     <row r="94" spans="1:31" ht="24.75" customHeight="1">
@@ -10578,7 +10767,9 @@
         <v>611</v>
       </c>
       <c r="AC94" s="14"/>
-      <c r="AD94" s="13"/>
+      <c r="AD94" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE94" s="14"/>
     </row>
     <row r="95" spans="1:31" ht="24.75" customHeight="1">
@@ -10665,7 +10856,9 @@
         <v>611</v>
       </c>
       <c r="AC95" s="14"/>
-      <c r="AD95" s="13"/>
+      <c r="AD95" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE95" s="14"/>
     </row>
     <row r="96" spans="1:31" ht="24.75" customHeight="1">
@@ -10752,7 +10945,9 @@
         <v>611</v>
       </c>
       <c r="AC96" s="14"/>
-      <c r="AD96" s="13"/>
+      <c r="AD96" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE96" s="14"/>
     </row>
     <row r="97" spans="1:31" ht="24.75" customHeight="1">
@@ -10837,7 +11032,9 @@
         <v>611</v>
       </c>
       <c r="AC97" s="14"/>
-      <c r="AD97" s="13"/>
+      <c r="AD97" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE97" s="14"/>
     </row>
     <row r="98" spans="1:31" ht="24.75" customHeight="1">
@@ -10924,7 +11121,9 @@
         <v>611</v>
       </c>
       <c r="AC98" s="14"/>
-      <c r="AD98" s="13"/>
+      <c r="AD98" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE98" s="14"/>
     </row>
     <row r="99" spans="1:31" ht="24.75" customHeight="1">
@@ -11011,7 +11210,9 @@
         <v>611</v>
       </c>
       <c r="AC99" s="14"/>
-      <c r="AD99" s="13"/>
+      <c r="AD99" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE99" s="14"/>
     </row>
     <row r="100" spans="1:31" ht="24.75" customHeight="1">
@@ -11098,7 +11299,9 @@
         <v>611</v>
       </c>
       <c r="AC100" s="14"/>
-      <c r="AD100" s="13"/>
+      <c r="AD100" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE100" s="14"/>
     </row>
     <row r="101" spans="1:31" ht="24.75" customHeight="1">
@@ -11185,7 +11388,9 @@
         <v>611</v>
       </c>
       <c r="AC101" s="14"/>
-      <c r="AD101" s="13"/>
+      <c r="AD101" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE101" s="14"/>
     </row>
     <row r="102" spans="1:31" ht="24.75" customHeight="1">
@@ -11272,7 +11477,9 @@
         <v>611</v>
       </c>
       <c r="AC102" s="14"/>
-      <c r="AD102" s="13"/>
+      <c r="AD102" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE102" s="14"/>
     </row>
     <row r="103" spans="1:31" ht="24.75" customHeight="1">
@@ -11359,7 +11566,9 @@
         <v>611</v>
       </c>
       <c r="AC103" s="14"/>
-      <c r="AD103" s="14"/>
+      <c r="AD103" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE103" s="14"/>
     </row>
     <row r="104" spans="1:31" ht="24.75" customHeight="1">
@@ -11446,7 +11655,9 @@
         <v>611</v>
       </c>
       <c r="AC104" s="14"/>
-      <c r="AD104" s="13"/>
+      <c r="AD104" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE104" s="14"/>
     </row>
     <row r="105" spans="1:31" ht="24.75" customHeight="1">
@@ -11533,7 +11744,9 @@
         <v>611</v>
       </c>
       <c r="AC105" s="14"/>
-      <c r="AD105" s="13"/>
+      <c r="AD105" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE105" s="14"/>
     </row>
     <row r="106" spans="1:31" ht="24.75" customHeight="1">
@@ -11620,7 +11833,9 @@
         <v>611</v>
       </c>
       <c r="AC106" s="14"/>
-      <c r="AD106" s="13"/>
+      <c r="AD106" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE106" s="14"/>
     </row>
     <row r="107" spans="1:31" ht="24.75" customHeight="1">
@@ -11707,7 +11922,9 @@
         <v>611</v>
       </c>
       <c r="AC107" s="14"/>
-      <c r="AD107" s="13"/>
+      <c r="AD107" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE107" s="14"/>
     </row>
     <row r="108" spans="1:31" ht="24.75" customHeight="1">
@@ -11794,7 +12011,9 @@
         <v>611</v>
       </c>
       <c r="AC108" s="14"/>
-      <c r="AD108" s="13"/>
+      <c r="AD108" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE108" s="14"/>
     </row>
     <row r="109" spans="1:31" ht="24.75" customHeight="1">
@@ -11881,7 +12100,9 @@
         <v>611</v>
       </c>
       <c r="AC109" s="14"/>
-      <c r="AD109" s="13"/>
+      <c r="AD109" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE109" s="14"/>
     </row>
     <row r="110" spans="1:31" ht="24.75" customHeight="1">
@@ -11968,7 +12189,9 @@
         <v>611</v>
       </c>
       <c r="AC110" s="14"/>
-      <c r="AD110" s="13"/>
+      <c r="AD110" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE110" s="14"/>
     </row>
     <row r="111" spans="1:31" ht="24.75" customHeight="1">
@@ -12055,7 +12278,9 @@
         <v>611</v>
       </c>
       <c r="AC111" s="14"/>
-      <c r="AD111" s="13"/>
+      <c r="AD111" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE111" s="14"/>
     </row>
     <row r="112" spans="1:31" ht="24.75" customHeight="1">
@@ -12142,7 +12367,9 @@
         <v>611</v>
       </c>
       <c r="AC112" s="14"/>
-      <c r="AD112" s="13"/>
+      <c r="AD112" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE112" s="14"/>
     </row>
     <row r="113" spans="1:31" ht="24.75" customHeight="1">
@@ -12229,7 +12456,9 @@
         <v>611</v>
       </c>
       <c r="AC113" s="14"/>
-      <c r="AD113" s="13"/>
+      <c r="AD113" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE113" s="14"/>
     </row>
     <row r="114" spans="1:31" ht="24.75" customHeight="1">
@@ -12316,7 +12545,9 @@
         <v>611</v>
       </c>
       <c r="AC114" s="14"/>
-      <c r="AD114" s="13"/>
+      <c r="AD114" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE114" s="14"/>
     </row>
     <row r="115" spans="1:31" ht="24.75" customHeight="1">
@@ -12403,7 +12634,9 @@
         <v>611</v>
       </c>
       <c r="AC115" s="14"/>
-      <c r="AD115" s="13"/>
+      <c r="AD115" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE115" s="14"/>
     </row>
     <row r="116" spans="1:31" ht="24.75" customHeight="1">
@@ -12490,7 +12723,9 @@
         <v>611</v>
       </c>
       <c r="AC116" s="14"/>
-      <c r="AD116" s="13"/>
+      <c r="AD116" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE116" s="14"/>
     </row>
     <row r="117" spans="1:31" ht="24.75" customHeight="1">
@@ -12577,7 +12812,9 @@
         <v>611</v>
       </c>
       <c r="AC117" s="14"/>
-      <c r="AD117" s="13"/>
+      <c r="AD117" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE117" s="14"/>
     </row>
     <row r="118" spans="1:31" ht="24.75" customHeight="1">
@@ -12664,7 +12901,9 @@
         <v>611</v>
       </c>
       <c r="AC118" s="14"/>
-      <c r="AD118" s="13"/>
+      <c r="AD118" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE118" s="14"/>
     </row>
     <row r="119" spans="1:31" ht="24.75" customHeight="1">
@@ -12751,7 +12990,9 @@
         <v>611</v>
       </c>
       <c r="AC119" s="14"/>
-      <c r="AD119" s="13"/>
+      <c r="AD119" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE119" s="14"/>
     </row>
     <row r="120" spans="1:31" ht="24.75" customHeight="1">
@@ -12836,7 +13077,9 @@
         <v>611</v>
       </c>
       <c r="AC120" s="14"/>
-      <c r="AD120" s="14"/>
+      <c r="AD120" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE120" s="14"/>
     </row>
     <row r="121" spans="1:31" ht="24.75" customHeight="1">
@@ -12923,7 +13166,9 @@
         <v>611</v>
       </c>
       <c r="AC121" s="14"/>
-      <c r="AD121" s="13"/>
+      <c r="AD121" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE121" s="14"/>
     </row>
     <row r="122" spans="1:31" ht="24.75" customHeight="1">
@@ -13010,7 +13255,9 @@
         <v>611</v>
       </c>
       <c r="AC122" s="14"/>
-      <c r="AD122" s="13"/>
+      <c r="AD122" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE122" s="14"/>
     </row>
     <row r="123" spans="1:31" ht="24.75" customHeight="1">
@@ -13097,7 +13344,9 @@
         <v>611</v>
       </c>
       <c r="AC123" s="14"/>
-      <c r="AD123" s="13"/>
+      <c r="AD123" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE123" s="14"/>
     </row>
     <row r="124" spans="1:31" ht="24.75" customHeight="1">
@@ -13184,7 +13433,9 @@
         <v>611</v>
       </c>
       <c r="AC124" s="14"/>
-      <c r="AD124" s="13"/>
+      <c r="AD124" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE124" s="14"/>
     </row>
     <row r="125" spans="1:31" ht="24.75" customHeight="1">
@@ -13271,7 +13522,9 @@
         <v>611</v>
       </c>
       <c r="AC125" s="14"/>
-      <c r="AD125" s="13"/>
+      <c r="AD125" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE125" s="14"/>
     </row>
     <row r="126" spans="1:31" ht="24.75" customHeight="1">
@@ -13358,7 +13611,9 @@
         <v>611</v>
       </c>
       <c r="AC126" s="14"/>
-      <c r="AD126" s="14"/>
+      <c r="AD126" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE126" s="14"/>
     </row>
     <row r="127" spans="1:31" ht="24.75" customHeight="1">
@@ -13445,7 +13700,9 @@
         <v>611</v>
       </c>
       <c r="AC127" s="14"/>
-      <c r="AD127" s="13"/>
+      <c r="AD127" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE127" s="14"/>
     </row>
     <row r="128" spans="1:31" ht="24.75" customHeight="1">
@@ -13532,7 +13789,9 @@
         <v>611</v>
       </c>
       <c r="AC128" s="14"/>
-      <c r="AD128" s="13"/>
+      <c r="AD128" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE128" s="14"/>
     </row>
     <row r="129" spans="1:31" ht="24.75" customHeight="1">
@@ -13619,7 +13878,9 @@
         <v>611</v>
       </c>
       <c r="AC129" s="14"/>
-      <c r="AD129" s="13"/>
+      <c r="AD129" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE129" s="14"/>
     </row>
     <row r="130" spans="1:31" ht="24.75" customHeight="1">
@@ -13706,7 +13967,9 @@
         <v>611</v>
       </c>
       <c r="AC130" s="14"/>
-      <c r="AD130" s="13"/>
+      <c r="AD130" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE130" s="14"/>
     </row>
     <row r="131" spans="1:31" ht="24.75" customHeight="1">
@@ -13793,7 +14056,9 @@
         <v>611</v>
       </c>
       <c r="AC131" s="14"/>
-      <c r="AD131" s="13"/>
+      <c r="AD131" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE131" s="14"/>
     </row>
     <row r="132" spans="1:31" ht="24.75" customHeight="1">
@@ -13880,7 +14145,9 @@
         <v>611</v>
       </c>
       <c r="AC132" s="14"/>
-      <c r="AD132" s="13"/>
+      <c r="AD132" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE132" s="14"/>
     </row>
     <row r="133" spans="1:31" ht="24.75" customHeight="1">
@@ -13967,7 +14234,9 @@
         <v>611</v>
       </c>
       <c r="AC133" s="14"/>
-      <c r="AD133" s="13"/>
+      <c r="AD133" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE133" s="14"/>
     </row>
     <row r="134" spans="1:31" ht="24.75" customHeight="1">
@@ -14054,7 +14323,9 @@
         <v>611</v>
       </c>
       <c r="AC134" s="14"/>
-      <c r="AD134" s="13"/>
+      <c r="AD134" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE134" s="14"/>
     </row>
     <row r="135" spans="1:31" ht="24.75" customHeight="1">
@@ -14141,7 +14412,9 @@
         <v>611</v>
       </c>
       <c r="AC135" s="14"/>
-      <c r="AD135" s="13"/>
+      <c r="AD135" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE135" s="14"/>
     </row>
     <row r="136" spans="1:31" ht="24.75" customHeight="1">
@@ -14228,7 +14501,9 @@
         <v>611</v>
       </c>
       <c r="AC136" s="14"/>
-      <c r="AD136" s="13"/>
+      <c r="AD136" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE136" s="14"/>
     </row>
     <row r="137" spans="1:31" ht="24.75" customHeight="1">
@@ -14315,7 +14590,9 @@
         <v>611</v>
       </c>
       <c r="AC137" s="14"/>
-      <c r="AD137" s="13"/>
+      <c r="AD137" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE137" s="14"/>
     </row>
     <row r="138" spans="1:31" ht="24.75" customHeight="1">
@@ -14402,7 +14679,9 @@
         <v>611</v>
       </c>
       <c r="AC138" s="14"/>
-      <c r="AD138" s="13"/>
+      <c r="AD138" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE138" s="14"/>
     </row>
     <row r="139" spans="1:31" ht="24.75" customHeight="1">
@@ -14489,7 +14768,9 @@
         <v>611</v>
       </c>
       <c r="AC139" s="14"/>
-      <c r="AD139" s="13"/>
+      <c r="AD139" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE139" s="14"/>
     </row>
     <row r="140" spans="1:31" ht="24.75" customHeight="1">
@@ -14576,7 +14857,9 @@
         <v>611</v>
       </c>
       <c r="AC140" s="14"/>
-      <c r="AD140" s="13"/>
+      <c r="AD140" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE140" s="14"/>
     </row>
     <row r="141" spans="1:31" ht="24.75" customHeight="1">
@@ -14661,7 +14944,9 @@
         <v>611</v>
       </c>
       <c r="AC141" s="14"/>
-      <c r="AD141" s="13"/>
+      <c r="AD141" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE141" s="14"/>
     </row>
     <row r="142" spans="1:31" ht="24.75" customHeight="1">
@@ -14748,7 +15033,9 @@
         <v>611</v>
       </c>
       <c r="AC142" s="14"/>
-      <c r="AD142" s="13"/>
+      <c r="AD142" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE142" s="14"/>
     </row>
     <row r="143" spans="1:31" ht="24.75" customHeight="1">
@@ -14835,7 +15122,9 @@
         <v>611</v>
       </c>
       <c r="AC143" s="14"/>
-      <c r="AD143" s="13"/>
+      <c r="AD143" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE143" s="14"/>
     </row>
     <row r="144" spans="1:31" ht="24.75" customHeight="1">
@@ -14922,7 +15211,9 @@
         <v>611</v>
       </c>
       <c r="AC144" s="14"/>
-      <c r="AD144" s="13"/>
+      <c r="AD144" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE144" s="14"/>
     </row>
     <row r="145" spans="1:31" ht="24.75" customHeight="1">
@@ -15009,7 +15300,9 @@
         <v>611</v>
       </c>
       <c r="AC145" s="14"/>
-      <c r="AD145" s="13"/>
+      <c r="AD145" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE145" s="14"/>
     </row>
     <row r="146" spans="1:31" ht="24.75" customHeight="1">
@@ -15096,7 +15389,9 @@
         <v>611</v>
       </c>
       <c r="AC146" s="14"/>
-      <c r="AD146" s="13"/>
+      <c r="AD146" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE146" s="14"/>
     </row>
     <row r="147" spans="1:31" ht="24.75" customHeight="1">
@@ -15183,7 +15478,9 @@
         <v>611</v>
       </c>
       <c r="AC147" s="14"/>
-      <c r="AD147" s="13"/>
+      <c r="AD147" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE147" s="14"/>
     </row>
     <row r="148" spans="1:31" ht="24.75" customHeight="1">
@@ -15268,7 +15565,9 @@
         <v>611</v>
       </c>
       <c r="AC148" s="14"/>
-      <c r="AD148" s="14"/>
+      <c r="AD148" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE148" s="14"/>
     </row>
     <row r="149" spans="1:31" ht="24.75" customHeight="1">
@@ -15355,7 +15654,9 @@
         <v>611</v>
       </c>
       <c r="AC149" s="14"/>
-      <c r="AD149" s="13"/>
+      <c r="AD149" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE149" s="14"/>
     </row>
     <row r="150" spans="1:31" ht="24.75" customHeight="1">
@@ -15442,7 +15743,9 @@
         <v>611</v>
       </c>
       <c r="AC150" s="14"/>
-      <c r="AD150" s="13"/>
+      <c r="AD150" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE150" s="14"/>
     </row>
     <row r="151" spans="1:31" ht="24.75" customHeight="1">
@@ -15529,7 +15832,9 @@
         <v>611</v>
       </c>
       <c r="AC151" s="14"/>
-      <c r="AD151" s="13"/>
+      <c r="AD151" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE151" s="14"/>
     </row>
     <row r="152" spans="1:31" ht="24.75" customHeight="1">
@@ -15616,7 +15921,9 @@
         <v>611</v>
       </c>
       <c r="AC152" s="14"/>
-      <c r="AD152" s="13"/>
+      <c r="AD152" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE152" s="14"/>
     </row>
     <row r="153" spans="1:31" ht="24.75" customHeight="1">
@@ -15703,7 +16010,9 @@
         <v>611</v>
       </c>
       <c r="AC153" s="14"/>
-      <c r="AD153" s="13"/>
+      <c r="AD153" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE153" s="14"/>
     </row>
     <row r="154" spans="1:31" ht="24.75" customHeight="1">
@@ -15790,7 +16099,9 @@
         <v>611</v>
       </c>
       <c r="AC154" s="14"/>
-      <c r="AD154" s="13"/>
+      <c r="AD154" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE154" s="14"/>
     </row>
     <row r="155" spans="1:31" ht="24.75" customHeight="1">
@@ -15877,7 +16188,9 @@
         <v>611</v>
       </c>
       <c r="AC155" s="14"/>
-      <c r="AD155" s="13"/>
+      <c r="AD155" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE155" s="14"/>
     </row>
     <row r="156" spans="1:31" ht="24.75" customHeight="1">
@@ -15964,7 +16277,9 @@
         <v>611</v>
       </c>
       <c r="AC156" s="14"/>
-      <c r="AD156" s="13"/>
+      <c r="AD156" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE156" s="14"/>
     </row>
     <row r="157" spans="1:31" ht="24.75" customHeight="1">
@@ -16051,7 +16366,9 @@
         <v>611</v>
       </c>
       <c r="AC157" s="14"/>
-      <c r="AD157" s="13"/>
+      <c r="AD157" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE157" s="14"/>
     </row>
     <row r="158" spans="1:31" ht="24.75" customHeight="1">
@@ -16138,7 +16455,9 @@
         <v>611</v>
       </c>
       <c r="AC158" s="14"/>
-      <c r="AD158" s="13"/>
+      <c r="AD158" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE158" s="14"/>
     </row>
     <row r="159" spans="1:31" ht="24.75" customHeight="1">
@@ -16225,7 +16544,9 @@
         <v>611</v>
       </c>
       <c r="AC159" s="14"/>
-      <c r="AD159" s="13"/>
+      <c r="AD159" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="AE159" s="14"/>
     </row>
   </sheetData>
